--- a/datacovidgt/Farmacias GT.xlsx
+++ b/datacovidgt/Farmacias GT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID GT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{1092516A-1961-452E-8D93-7D2E404A3A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FA14AC7-2BED-4AED-A468-1EFB3EDB6E97}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{1092516A-1961-452E-8D93-7D2E404A3A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16403D7D-EBD2-40C0-8A8E-562516D2D72E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instalaciones_Guatemala" sheetId="1" r:id="rId1"/>
@@ -2515,7 +2515,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2564,9 +2564,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3135,13 +3132,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3151,6 +3141,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -3170,7 +3167,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A57C3AF-7F5A-49EB-8FDA-87DDE7C1F675}" name="Farmacias_GT" displayName="Farmacias_GT" ref="A1:Y350" totalsRowShown="0" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A57C3AF-7F5A-49EB-8FDA-87DDE7C1F675}" name="Farmacias_GT" displayName="Farmacias_GT" ref="A1:Y350" totalsRowShown="0" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A1:Y350" xr:uid="{380BF2CB-7E30-41BA-B01B-8670582CDF39}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{E7EBDBF7-8B85-47DD-A588-BD14A460CF53}" name="OBJECTID_1" dataDxfId="24"/>
@@ -3510,9 +3507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y350"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2:X350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3690,10 +3687,10 @@
         <v>321</v>
       </c>
       <c r="W2" s="7">
-        <v>15.3347</v>
+        <v>14.6228</v>
       </c>
       <c r="X2" s="7">
-        <v>-89.751000000000005</v>
+        <v>-90.512900000000002</v>
       </c>
       <c r="Y2" s="10" t="s">
         <v>621</v>
@@ -3771,10 +3768,10 @@
         <v>602</v>
       </c>
       <c r="W3" s="7">
-        <v>15.377700000000001</v>
+        <v>14.628299999999999</v>
       </c>
       <c r="X3" s="7">
-        <v>-90.424899999999994</v>
+        <v>-90.519099999999995</v>
       </c>
       <c r="Y3" s="10" t="s">
         <v>621</v>
@@ -3852,10 +3849,10 @@
         <v>62</v>
       </c>
       <c r="W4" s="7">
-        <v>15.379200000000001</v>
+        <v>14.6288</v>
       </c>
       <c r="X4" s="7">
-        <v>-90.423900000000003</v>
+        <v>-90.515600000000006</v>
       </c>
       <c r="Y4" s="10" t="s">
         <v>621</v>
@@ -3933,10 +3930,10 @@
         <v>236</v>
       </c>
       <c r="W5" s="7">
-        <v>15.426299999999999</v>
+        <v>14.6288</v>
       </c>
       <c r="X5" s="7">
-        <v>-90.283799999999999</v>
+        <v>-90.514399999999995</v>
       </c>
       <c r="Y5" s="10" t="s">
         <v>620</v>
@@ -4014,10 +4011,10 @@
         <v>619</v>
       </c>
       <c r="W6" s="7">
-        <v>15.428800000000001</v>
+        <v>14.6288</v>
       </c>
       <c r="X6" s="7">
-        <v>-90.336200000000005</v>
+        <v>-90.513999999999996</v>
       </c>
       <c r="Y6" s="10" t="s">
         <v>621</v>
@@ -4095,10 +4092,10 @@
         <v>177</v>
       </c>
       <c r="W7" s="7">
-        <v>15.429</v>
+        <v>14.6305</v>
       </c>
       <c r="X7" s="7">
-        <v>-90.335999999999999</v>
+        <v>-90.5124</v>
       </c>
       <c r="Y7" s="10" t="s">
         <v>621</v>
@@ -4176,10 +4173,10 @@
         <v>260</v>
       </c>
       <c r="W8" s="7">
-        <v>15.457599999999999</v>
+        <v>14.631500000000001</v>
       </c>
       <c r="X8" s="7">
-        <v>-90.369</v>
+        <v>-90.517099999999999</v>
       </c>
       <c r="Y8" s="10" t="s">
         <v>621</v>
@@ -4257,10 +4254,10 @@
         <v>62</v>
       </c>
       <c r="W9" s="7">
-        <v>15.4605</v>
+        <v>14.631600000000001</v>
       </c>
       <c r="X9" s="7">
-        <v>-90.371799999999993</v>
+        <v>-90.513800000000003</v>
       </c>
       <c r="Y9" s="10" t="s">
         <v>621</v>
@@ -4338,10 +4335,10 @@
         <v>236</v>
       </c>
       <c r="W10" s="7">
-        <v>15.460599999999999</v>
+        <v>14.632199999999999</v>
       </c>
       <c r="X10" s="7">
-        <v>-90.382999999999996</v>
+        <v>-90.511899999999997</v>
       </c>
       <c r="Y10" s="10" t="s">
         <v>621</v>
@@ -4419,10 +4416,10 @@
         <v>62</v>
       </c>
       <c r="W11" s="7">
-        <v>15.464</v>
+        <v>14.635</v>
       </c>
       <c r="X11" s="7">
-        <v>-90.339299999999994</v>
+        <v>-90.515299999999996</v>
       </c>
       <c r="Y11" s="10" t="s">
         <v>621</v>
@@ -4500,10 +4497,10 @@
         <v>236</v>
       </c>
       <c r="W12" s="7">
-        <v>15.4642</v>
+        <v>14.6401</v>
       </c>
       <c r="X12" s="7">
-        <v>-90.389099999999999</v>
+        <v>-90.505700000000004</v>
       </c>
       <c r="Y12" s="10" t="s">
         <v>621</v>
@@ -4581,10 +4578,10 @@
         <v>224</v>
       </c>
       <c r="W13" s="7">
-        <v>15.4649</v>
+        <v>14.6403</v>
       </c>
       <c r="X13" s="7">
-        <v>-90.299400000000006</v>
+        <v>-90.512600000000006</v>
       </c>
       <c r="Y13" s="10" t="s">
         <v>621</v>
@@ -4662,10 +4659,10 @@
         <v>62</v>
       </c>
       <c r="W14" s="7">
-        <v>15.4651</v>
+        <v>14.640599999999999</v>
       </c>
       <c r="X14" s="7">
-        <v>-90.372200000000007</v>
+        <v>-90.508499999999998</v>
       </c>
       <c r="Y14" s="10" t="s">
         <v>621</v>
@@ -4743,10 +4740,10 @@
         <v>236</v>
       </c>
       <c r="W15" s="7">
-        <v>15.470499999999999</v>
+        <v>14.6427</v>
       </c>
       <c r="X15" s="7">
-        <v>-90.405199999999994</v>
+        <v>-90.515699999999995</v>
       </c>
       <c r="Y15" s="10" t="s">
         <v>621</v>
@@ -4824,10 +4821,10 @@
         <v>62</v>
       </c>
       <c r="W16" s="7">
-        <v>15.4732</v>
+        <v>14.6433</v>
       </c>
       <c r="X16" s="7">
-        <v>-90.401600000000002</v>
+        <v>-90.510400000000004</v>
       </c>
       <c r="Y16" s="10" t="s">
         <v>621</v>
@@ -4905,10 +4902,10 @@
         <v>322</v>
       </c>
       <c r="W17" s="7">
-        <v>15.4754</v>
+        <v>14.6233</v>
       </c>
       <c r="X17" s="7">
-        <v>-90.369299999999996</v>
+        <v>-90.524100000000004</v>
       </c>
       <c r="Y17" s="10" t="s">
         <v>621</v>
@@ -4986,10 +4983,10 @@
         <v>236</v>
       </c>
       <c r="W18" s="7">
-        <v>15.4756</v>
+        <v>14.6279</v>
       </c>
       <c r="X18" s="7">
-        <v>-90.368899999999996</v>
+        <v>-90.527000000000001</v>
       </c>
       <c r="Y18" s="10" t="s">
         <v>621</v>
@@ -5067,10 +5064,10 @@
         <v>283</v>
       </c>
       <c r="W19" s="7">
-        <v>15.4757</v>
+        <v>14.614800000000001</v>
       </c>
       <c r="X19" s="7">
-        <v>-90.372600000000006</v>
+        <v>-90.519000000000005</v>
       </c>
       <c r="Y19" s="10" t="s">
         <v>621</v>
@@ -5148,10 +5145,10 @@
         <v>305</v>
       </c>
       <c r="W20" s="7">
-        <v>15.4757</v>
+        <v>14.616199999999999</v>
       </c>
       <c r="X20" s="7">
-        <v>-90.372100000000003</v>
+        <v>-90.516199999999998</v>
       </c>
       <c r="Y20" s="10" t="s">
         <v>621</v>
@@ -5229,10 +5226,10 @@
         <v>306</v>
       </c>
       <c r="W21" s="7">
-        <v>15.4765</v>
+        <v>14.6165</v>
       </c>
       <c r="X21" s="7">
-        <v>-90.367099999999994</v>
+        <v>-90.517799999999994</v>
       </c>
       <c r="Y21" s="10" t="s">
         <v>621</v>
@@ -5310,10 +5307,10 @@
         <v>307</v>
       </c>
       <c r="W22" s="7">
-        <v>15.5444</v>
+        <v>14.6166</v>
       </c>
       <c r="X22" s="7">
-        <v>-89.9405</v>
+        <v>-90.519199999999998</v>
       </c>
       <c r="Y22" s="10" t="s">
         <v>621</v>
@@ -5391,10 +5388,10 @@
         <v>310</v>
       </c>
       <c r="W23" s="7">
-        <v>15.5471</v>
+        <v>14.6175</v>
       </c>
       <c r="X23" s="7">
-        <v>-89.952200000000005</v>
+        <v>-90.513999999999996</v>
       </c>
       <c r="Y23" s="10" t="s">
         <v>621</v>
@@ -5472,10 +5469,10 @@
         <v>236</v>
       </c>
       <c r="W24" s="7">
-        <v>15.5479</v>
+        <v>14.621700000000001</v>
       </c>
       <c r="X24" s="7">
-        <v>-89.952799999999996</v>
+        <v>-90.507199999999997</v>
       </c>
       <c r="Y24" s="10" t="s">
         <v>621</v>
@@ -5553,10 +5550,10 @@
         <v>337</v>
       </c>
       <c r="W25" s="7">
-        <v>15.5684</v>
+        <v>14.6319</v>
       </c>
       <c r="X25" s="7">
-        <v>-89.989000000000004</v>
+        <v>-90.495999999999995</v>
       </c>
       <c r="Y25" s="10" t="s">
         <v>621</v>
@@ -5634,10 +5631,10 @@
         <v>260</v>
       </c>
       <c r="W26" s="7">
-        <v>15.571400000000001</v>
+        <v>14.632300000000001</v>
       </c>
       <c r="X26" s="7">
-        <v>-89.9803</v>
+        <v>-90.494500000000002</v>
       </c>
       <c r="Y26" s="10" t="s">
         <v>621</v>
@@ -5715,10 +5712,10 @@
         <v>61</v>
       </c>
       <c r="W27" s="7">
-        <v>15.571999999999999</v>
+        <v>14.648099999999999</v>
       </c>
       <c r="X27" s="7">
-        <v>-89.980500000000006</v>
+        <v>-90.500699999999995</v>
       </c>
       <c r="Y27" s="10" t="s">
         <v>621</v>
@@ -5796,10 +5793,10 @@
         <v>236</v>
       </c>
       <c r="W28" s="7">
-        <v>15.576700000000001</v>
+        <v>14.6501</v>
       </c>
       <c r="X28" s="7">
-        <v>-89.985699999999994</v>
+        <v>-90.491200000000006</v>
       </c>
       <c r="Y28" s="10" t="s">
         <v>621</v>
@@ -5877,10 +5874,10 @@
         <v>283</v>
       </c>
       <c r="W29" s="7">
-        <v>15.5769</v>
+        <v>14.6158</v>
       </c>
       <c r="X29" s="7">
-        <v>-89.9803</v>
+        <v>-90.537499999999994</v>
       </c>
       <c r="Y29" s="10" t="s">
         <v>621</v>
@@ -5958,10 +5955,10 @@
         <v>608</v>
       </c>
       <c r="W30" s="7">
-        <v>15.5769</v>
+        <v>14.6159</v>
       </c>
       <c r="X30" s="7">
-        <v>-89.979900000000001</v>
+        <v>-90.537899999999993</v>
       </c>
       <c r="Y30" s="10" t="s">
         <v>621</v>
@@ -6039,10 +6036,10 @@
         <v>617</v>
       </c>
       <c r="W31" s="7">
-        <v>15.5769</v>
+        <v>14.616199999999999</v>
       </c>
       <c r="X31" s="7">
-        <v>-89.98</v>
+        <v>-90.538499999999999</v>
       </c>
       <c r="Y31" s="10" t="s">
         <v>621</v>
@@ -6120,10 +6117,10 @@
         <v>174</v>
       </c>
       <c r="W32" s="7">
-        <v>15.5769</v>
+        <v>14.6166</v>
       </c>
       <c r="X32" s="7">
-        <v>-89.98</v>
+        <v>-90.539500000000004</v>
       </c>
       <c r="Y32" s="10" t="s">
         <v>621</v>
@@ -6201,10 +6198,10 @@
         <v>174</v>
       </c>
       <c r="W33" s="7">
-        <v>15.577</v>
+        <v>14.6242</v>
       </c>
       <c r="X33" s="7">
-        <v>-89.982200000000006</v>
+        <v>-90.541399999999996</v>
       </c>
       <c r="Y33" s="10" t="s">
         <v>621</v>
@@ -6282,10 +6279,10 @@
         <v>592</v>
       </c>
       <c r="W34" s="7">
-        <v>15.577199999999999</v>
+        <v>14.6252</v>
       </c>
       <c r="X34" s="7">
-        <v>-89.979500000000002</v>
+        <v>-90.549700000000001</v>
       </c>
       <c r="Y34" s="10" t="s">
         <v>621</v>
@@ -6363,10 +6360,10 @@
         <v>236</v>
       </c>
       <c r="W35" s="7">
-        <v>15.5785</v>
+        <v>14.628</v>
       </c>
       <c r="X35" s="7">
-        <v>-90.085099999999997</v>
+        <v>-90.544399999999996</v>
       </c>
       <c r="Y35" s="10" t="s">
         <v>621</v>
@@ -6444,10 +6441,10 @@
         <v>174</v>
       </c>
       <c r="W36" s="7">
-        <v>15.5785</v>
+        <v>14.6288</v>
       </c>
       <c r="X36" s="7">
-        <v>-89.981099999999998</v>
+        <v>-90.540700000000001</v>
       </c>
       <c r="Y36" s="10" t="s">
         <v>621</v>
@@ -6525,10 +6522,10 @@
         <v>174</v>
       </c>
       <c r="W37" s="7">
-        <v>15.578900000000001</v>
+        <v>14.6294</v>
       </c>
       <c r="X37" s="7">
-        <v>-89.981499999999997</v>
+        <v>-90.537800000000004</v>
       </c>
       <c r="Y37" s="10" t="s">
         <v>621</v>
@@ -6606,10 +6603,10 @@
         <v>355</v>
       </c>
       <c r="W38" s="7">
-        <v>15.579000000000001</v>
+        <v>14.640499999999999</v>
       </c>
       <c r="X38" s="7">
-        <v>-89.978300000000004</v>
+        <v>-90.553899999999999</v>
       </c>
       <c r="Y38" s="10" t="s">
         <v>621</v>
@@ -6687,10 +6684,10 @@
         <v>615</v>
       </c>
       <c r="W39" s="7">
-        <v>15.5792</v>
+        <v>14.618600000000001</v>
       </c>
       <c r="X39" s="7">
-        <v>-89.976100000000002</v>
+        <v>-90.519300000000001</v>
       </c>
       <c r="Y39" s="10" t="s">
         <v>621</v>
@@ -6768,10 +6765,10 @@
         <v>276</v>
       </c>
       <c r="W40" s="7">
-        <v>15.581300000000001</v>
+        <v>14.595499999999999</v>
       </c>
       <c r="X40" s="7">
-        <v>-89.972200000000001</v>
+        <v>-90.519000000000005</v>
       </c>
       <c r="Y40" s="10" t="s">
         <v>621</v>
@@ -6849,10 +6846,10 @@
         <v>277</v>
       </c>
       <c r="W41" s="7">
-        <v>15.5814</v>
+        <v>14.595599999999999</v>
       </c>
       <c r="X41" s="7">
-        <v>-89.981200000000001</v>
+        <v>-90.518000000000001</v>
       </c>
       <c r="Y41" s="10" t="s">
         <v>621</v>
@@ -6930,10 +6927,10 @@
         <v>277</v>
       </c>
       <c r="W42" s="7">
-        <v>15.5814</v>
+        <v>14.6004</v>
       </c>
       <c r="X42" s="7">
-        <v>-89.975800000000007</v>
+        <v>-90.517899999999997</v>
       </c>
       <c r="Y42" s="10" t="s">
         <v>621</v>
@@ -7011,10 +7008,10 @@
         <v>177</v>
       </c>
       <c r="W43" s="7">
-        <v>15.5907</v>
+        <v>14.6006</v>
       </c>
       <c r="X43" s="7">
-        <v>-90.055400000000006</v>
+        <v>-90.5184</v>
       </c>
       <c r="Y43" s="10" t="s">
         <v>621</v>
@@ -7092,10 +7089,10 @@
         <v>283</v>
       </c>
       <c r="W44" s="7">
-        <v>15.6265</v>
+        <v>14.6015</v>
       </c>
       <c r="X44" s="7">
-        <v>-90.064800000000005</v>
+        <v>-90.521100000000004</v>
       </c>
       <c r="Y44" s="10" t="s">
         <v>621</v>
@@ -7173,10 +7170,10 @@
         <v>236</v>
       </c>
       <c r="W45" s="7">
-        <v>15.6777</v>
+        <v>14.602499999999999</v>
       </c>
       <c r="X45" s="7">
-        <v>-90.319599999999994</v>
+        <v>-90.524799999999999</v>
       </c>
       <c r="Y45" s="10" t="s">
         <v>621</v>
@@ -7254,10 +7251,10 @@
         <v>290</v>
       </c>
       <c r="W46" s="7">
-        <v>15.7517</v>
+        <v>14.603999999999999</v>
       </c>
       <c r="X46" s="7">
-        <v>-89.946299999999994</v>
+        <v>-90.518100000000004</v>
       </c>
       <c r="Y46" s="10" t="s">
         <v>621</v>
@@ -7335,10 +7332,10 @@
         <v>566</v>
       </c>
       <c r="W47" s="7">
-        <v>15.8041</v>
+        <v>14.604799999999999</v>
       </c>
       <c r="X47" s="7">
-        <v>-89.867699999999999</v>
+        <v>-90.518000000000001</v>
       </c>
       <c r="Y47" s="10" t="s">
         <v>621</v>
@@ -7416,10 +7413,10 @@
         <v>260</v>
       </c>
       <c r="W48" s="7">
-        <v>15.812900000000001</v>
+        <v>14.610799999999999</v>
       </c>
       <c r="X48" s="7">
-        <v>-90.29</v>
+        <v>-90.518600000000006</v>
       </c>
       <c r="Y48" s="10" t="s">
         <v>621</v>
@@ -7497,10 +7494,10 @@
         <v>277</v>
       </c>
       <c r="W49" s="7">
-        <v>15.8132</v>
+        <v>14.6113</v>
       </c>
       <c r="X49" s="7">
-        <v>-90.290199999999999</v>
+        <v>-90.514200000000002</v>
       </c>
       <c r="Y49" s="10" t="s">
         <v>620</v>
@@ -7578,10 +7575,10 @@
         <v>263</v>
       </c>
       <c r="W50" s="7">
-        <v>15.815300000000001</v>
+        <v>14.583</v>
       </c>
       <c r="X50" s="7">
-        <v>-90.291300000000007</v>
+        <v>-90.498900000000006</v>
       </c>
       <c r="Y50" s="10" t="s">
         <v>620</v>
@@ -7659,10 +7656,10 @@
         <v>42</v>
       </c>
       <c r="W51" s="7">
-        <v>15.815899999999999</v>
+        <v>14.5908</v>
       </c>
       <c r="X51" s="7">
-        <v>-90.2911</v>
+        <v>-90.508200000000002</v>
       </c>
       <c r="Y51" s="10" t="s">
         <v>621</v>
@@ -7740,10 +7737,10 @@
         <v>191</v>
       </c>
       <c r="W52" s="7">
-        <v>15.8161</v>
+        <v>14.592000000000001</v>
       </c>
       <c r="X52" s="7">
-        <v>-90.2911</v>
+        <v>-90.513300000000001</v>
       </c>
       <c r="Y52" s="10" t="s">
         <v>621</v>
@@ -7821,10 +7818,10 @@
         <v>271</v>
       </c>
       <c r="W53" s="7">
-        <v>15.817</v>
+        <v>14.592700000000001</v>
       </c>
       <c r="X53" s="7">
-        <v>-90.291200000000003</v>
+        <v>-90.511700000000005</v>
       </c>
       <c r="Y53" s="10" t="s">
         <v>621</v>
@@ -7902,10 +7899,10 @@
         <v>271</v>
       </c>
       <c r="W54" s="7">
-        <v>15.835800000000001</v>
+        <v>14.5932</v>
       </c>
       <c r="X54" s="7">
-        <v>-90.275000000000006</v>
+        <v>-90.5154</v>
       </c>
       <c r="Y54" s="10" t="s">
         <v>621</v>
@@ -7983,10 +7980,10 @@
         <v>278</v>
       </c>
       <c r="W55" s="7">
-        <v>15.8469</v>
+        <v>14.595700000000001</v>
       </c>
       <c r="X55" s="7">
-        <v>-89.452699999999993</v>
+        <v>-90.506699999999995</v>
       </c>
       <c r="Y55" s="10" t="s">
         <v>621</v>
@@ -8064,10 +8061,10 @@
         <v>279</v>
       </c>
       <c r="W56" s="7">
-        <v>15.8643</v>
+        <v>14.596399999999999</v>
       </c>
       <c r="X56" s="7">
-        <v>-90.039500000000004</v>
+        <v>-90.513400000000004</v>
       </c>
       <c r="Y56" s="10" t="s">
         <v>621</v>
@@ -8145,10 +8142,10 @@
         <v>59</v>
       </c>
       <c r="W57" s="7">
-        <v>15.866099999999999</v>
+        <v>14.598000000000001</v>
       </c>
       <c r="X57" s="7">
-        <v>-90.040400000000005</v>
+        <v>-90.513800000000003</v>
       </c>
       <c r="Y57" s="10" t="s">
         <v>621</v>
@@ -8226,10 +8223,10 @@
         <v>588</v>
       </c>
       <c r="W58" s="7">
-        <v>15.866199999999999</v>
+        <v>14.6036</v>
       </c>
       <c r="X58" s="7">
-        <v>-90.041799999999995</v>
+        <v>-90.510300000000001</v>
       </c>
       <c r="Y58" s="10" t="s">
         <v>621</v>
@@ -8307,10 +8304,10 @@
         <v>291</v>
       </c>
       <c r="W59" s="7">
-        <v>15.866400000000001</v>
+        <v>14.6058</v>
       </c>
       <c r="X59" s="7">
-        <v>-90.040400000000005</v>
+        <v>-90.510499999999993</v>
       </c>
       <c r="Y59" s="10" t="s">
         <v>621</v>
@@ -8388,10 +8385,10 @@
         <v>38</v>
       </c>
       <c r="W60" s="7">
-        <v>15.8672</v>
+        <v>14.6066</v>
       </c>
       <c r="X60" s="7">
-        <v>-90.046099999999996</v>
+        <v>-90.510499999999993</v>
       </c>
       <c r="Y60" s="10" t="s">
         <v>621</v>
@@ -8469,10 +8466,10 @@
         <v>224</v>
       </c>
       <c r="W61" s="7">
-        <v>15.8706</v>
+        <v>14.607799999999999</v>
       </c>
       <c r="X61" s="7">
-        <v>-90.142600000000002</v>
+        <v>-90.510400000000004</v>
       </c>
       <c r="Y61" s="10" t="s">
         <v>621</v>
@@ -8550,10 +8547,10 @@
         <v>165</v>
       </c>
       <c r="W62" s="7">
-        <v>15.8827</v>
+        <v>14.6106</v>
       </c>
       <c r="X62" s="7">
-        <v>-90.183099999999996</v>
+        <v>-90.510499999999993</v>
       </c>
       <c r="Y62" s="10" t="s">
         <v>621</v>
@@ -8631,10 +8628,10 @@
         <v>594</v>
       </c>
       <c r="W63" s="7">
-        <v>15.884600000000001</v>
+        <v>14.6107</v>
       </c>
       <c r="X63" s="7">
-        <v>-90.1905</v>
+        <v>-90.51</v>
       </c>
       <c r="Y63" s="10" t="s">
         <v>621</v>
@@ -8712,10 +8709,10 @@
         <v>281</v>
       </c>
       <c r="W64" s="7">
-        <v>15.8902</v>
+        <v>14.5997</v>
       </c>
       <c r="X64" s="7">
-        <v>-90.258399999999995</v>
+        <v>-90.558999999999997</v>
       </c>
       <c r="Y64" s="10" t="s">
         <v>621</v>
@@ -8793,10 +8790,10 @@
         <v>282</v>
       </c>
       <c r="W65" s="7">
-        <v>15.992000000000001</v>
+        <v>14.601100000000001</v>
       </c>
       <c r="X65" s="7">
-        <v>-90.147900000000007</v>
+        <v>-90.549800000000005</v>
       </c>
       <c r="Y65" s="10" t="s">
         <v>621</v>
@@ -8874,10 +8871,10 @@
         <v>284</v>
       </c>
       <c r="W66" s="7">
-        <v>16.908999999999999</v>
+        <v>14.6023</v>
       </c>
       <c r="X66" s="7">
-        <v>-89.887</v>
+        <v>-90.558099999999996</v>
       </c>
       <c r="Y66" s="10" t="s">
         <v>621</v>
@@ -8955,10 +8952,10 @@
         <v>177</v>
       </c>
       <c r="W67" s="7">
-        <v>16.912199999999999</v>
+        <v>14.5594</v>
       </c>
       <c r="X67" s="7">
-        <v>-89.892499999999998</v>
+        <v>-90.550200000000004</v>
       </c>
       <c r="Y67" s="10" t="s">
         <v>621</v>
@@ -9036,10 +9033,10 @@
         <v>260</v>
       </c>
       <c r="W68" s="7">
-        <v>16.912400000000002</v>
+        <v>14.559699999999999</v>
       </c>
       <c r="X68" s="7">
-        <v>-89.894800000000004</v>
+        <v>-90.549599999999998</v>
       </c>
       <c r="Y68" s="10" t="s">
         <v>621</v>
@@ -9117,10 +9114,10 @@
         <v>614</v>
       </c>
       <c r="W69" s="7">
-        <v>16.913499999999999</v>
+        <v>14.559799999999999</v>
       </c>
       <c r="X69" s="7">
-        <v>-89.892499999999998</v>
+        <v>-90.55</v>
       </c>
       <c r="Y69" s="10" t="s">
         <v>621</v>
@@ -9198,10 +9195,10 @@
         <v>236</v>
       </c>
       <c r="W70" s="7">
-        <v>16.914100000000001</v>
+        <v>14.568899999999999</v>
       </c>
       <c r="X70" s="7">
-        <v>-89.894000000000005</v>
+        <v>-90.549000000000007</v>
       </c>
       <c r="Y70" s="10" t="s">
         <v>621</v>
@@ -9279,10 +9276,10 @@
         <v>251</v>
       </c>
       <c r="W71" s="7">
-        <v>16.918700000000001</v>
+        <v>14.5716</v>
       </c>
       <c r="X71" s="7">
-        <v>-89.892399999999995</v>
+        <v>-90.548199999999994</v>
       </c>
       <c r="Y71" s="10" t="s">
         <v>621</v>
@@ -9360,10 +9357,10 @@
         <v>139</v>
       </c>
       <c r="W72" s="7">
-        <v>16.919699999999999</v>
+        <v>14.574400000000001</v>
       </c>
       <c r="X72" s="7">
-        <v>-89.892300000000006</v>
+        <v>-90.542400000000001</v>
       </c>
       <c r="Y72" s="10" t="s">
         <v>621</v>
@@ -9441,10 +9438,10 @@
         <v>264</v>
       </c>
       <c r="W73" s="7">
-        <v>16.919799999999999</v>
+        <v>14.5832</v>
       </c>
       <c r="X73" s="7">
-        <v>-89.893199999999993</v>
+        <v>-90.546499999999995</v>
       </c>
       <c r="Y73" s="10" t="s">
         <v>621</v>
@@ -9522,10 +9519,10 @@
         <v>236</v>
       </c>
       <c r="W74" s="7">
-        <v>16.920000000000002</v>
+        <v>14.586</v>
       </c>
       <c r="X74" s="7">
-        <v>-89.893600000000006</v>
+        <v>-90.542599999999993</v>
       </c>
       <c r="Y74" s="10" t="s">
         <v>621</v>
@@ -9603,10 +9600,10 @@
         <v>268</v>
       </c>
       <c r="W75" s="7">
-        <v>16.920000000000002</v>
+        <v>14.587</v>
       </c>
       <c r="X75" s="7">
-        <v>-89.892200000000003</v>
+        <v>-90.551900000000003</v>
       </c>
       <c r="Y75" s="10" t="s">
         <v>621</v>
@@ -9684,10 +9681,10 @@
         <v>270</v>
       </c>
       <c r="W76" s="7">
-        <v>16.9208</v>
+        <v>14.5922</v>
       </c>
       <c r="X76" s="7">
-        <v>-89.891999999999996</v>
+        <v>-90.544899999999998</v>
       </c>
       <c r="Y76" s="10" t="s">
         <v>621</v>
@@ -9765,10 +9762,10 @@
         <v>269</v>
       </c>
       <c r="W77" s="7">
-        <v>16.9208</v>
+        <v>14.5922</v>
       </c>
       <c r="X77" s="7">
-        <v>-89.891900000000007</v>
+        <v>-90.519599999999997</v>
       </c>
       <c r="Y77" s="10" t="s">
         <v>621</v>
@@ -9846,10 +9843,10 @@
         <v>260</v>
       </c>
       <c r="W78" s="7">
-        <v>16.9434</v>
+        <v>14.579599999999999</v>
       </c>
       <c r="X78" s="7">
-        <v>-89.906400000000005</v>
+        <v>-90.519099999999995</v>
       </c>
       <c r="Y78" s="10" t="s">
         <v>621</v>
@@ -9927,10 +9924,10 @@
         <v>220</v>
       </c>
       <c r="W79" s="7">
-        <v>16.995799999999999</v>
+        <v>14.579800000000001</v>
       </c>
       <c r="X79" s="7">
-        <v>-89.692800000000005</v>
+        <v>-90.522900000000007</v>
       </c>
       <c r="Y79" s="10" t="s">
         <v>621</v>
@@ -10008,10 +10005,10 @@
         <v>588</v>
       </c>
       <c r="W80" s="7">
-        <v>16.936499999999999</v>
+        <v>14.5822</v>
       </c>
       <c r="X80" s="7">
-        <v>-89.886499999999998</v>
+        <v>-90.515500000000003</v>
       </c>
       <c r="Y80" s="10" t="s">
         <v>621</v>
@@ -10089,10 +10086,10 @@
         <v>588</v>
       </c>
       <c r="W81" s="7">
-        <v>17.2273</v>
+        <v>14.585000000000001</v>
       </c>
       <c r="X81" s="7">
-        <v>-89.612799999999993</v>
+        <v>-90.516099999999994</v>
       </c>
       <c r="Y81" s="10" t="s">
         <v>621</v>
@@ -10170,10 +10167,10 @@
         <v>38</v>
       </c>
       <c r="W82" s="7">
-        <v>17.3903</v>
+        <v>14.585000000000001</v>
       </c>
       <c r="X82" s="7">
-        <v>-89.633300000000006</v>
+        <v>-90.519300000000001</v>
       </c>
       <c r="Y82" s="10" t="s">
         <v>621</v>
@@ -10251,10 +10248,10 @@
         <v>56</v>
       </c>
       <c r="W83" s="7">
-        <v>17.391500000000001</v>
+        <v>14.5862</v>
       </c>
       <c r="X83" s="7">
-        <v>-89.6357</v>
+        <v>-90.518600000000006</v>
       </c>
       <c r="Y83" s="10" t="s">
         <v>621</v>
@@ -10332,10 +10329,10 @@
         <v>135</v>
       </c>
       <c r="W84" s="7">
-        <v>17.392700000000001</v>
+        <v>14.5891</v>
       </c>
       <c r="X84" s="7">
-        <v>-89.634500000000003</v>
+        <v>-90.510400000000004</v>
       </c>
       <c r="Y84" s="10" t="s">
         <v>621</v>
@@ -10413,10 +10410,10 @@
         <v>236</v>
       </c>
       <c r="W85" s="7">
-        <v>17.392700000000001</v>
+        <v>14.594799999999999</v>
       </c>
       <c r="X85" s="7">
-        <v>-89.634500000000003</v>
+        <v>-90.4953</v>
       </c>
       <c r="Y85" s="10" t="s">
         <v>621</v>
@@ -10494,10 +10491,10 @@
         <v>588</v>
       </c>
       <c r="W86" s="7">
-        <v>16.980399999999999</v>
+        <v>14.5985</v>
       </c>
       <c r="X86" s="7">
-        <v>-89.901600000000002</v>
+        <v>-90.4983</v>
       </c>
       <c r="Y86" s="10" t="s">
         <v>621</v>
@@ -10575,10 +10572,10 @@
         <v>260</v>
       </c>
       <c r="W87" s="7">
-        <v>16.981100000000001</v>
+        <v>14.6248</v>
       </c>
       <c r="X87" s="7">
-        <v>-89.900899999999993</v>
+        <v>-90.479299999999995</v>
       </c>
       <c r="Y87" s="10" t="s">
         <v>621</v>
@@ -10656,10 +10653,10 @@
         <v>220</v>
       </c>
       <c r="W88" s="7">
-        <v>16.981400000000001</v>
+        <v>14.623699999999999</v>
       </c>
       <c r="X88" s="7">
-        <v>-89.900300000000001</v>
+        <v>-90.469099999999997</v>
       </c>
       <c r="Y88" s="10" t="s">
         <v>621</v>
@@ -10737,10 +10734,10 @@
         <v>236</v>
       </c>
       <c r="W89" s="7">
-        <v>16.9818</v>
+        <v>14.5459</v>
       </c>
       <c r="X89" s="7">
-        <v>-89.899900000000002</v>
+        <v>-90.552499999999995</v>
       </c>
       <c r="Y89" s="10" t="s">
         <v>621</v>
@@ -10818,10 +10815,10 @@
         <v>236</v>
       </c>
       <c r="W90" s="7">
-        <v>16.982700000000001</v>
+        <v>14.559799999999999</v>
       </c>
       <c r="X90" s="7">
-        <v>-89.900700000000001</v>
+        <v>-90.548299999999998</v>
       </c>
       <c r="Y90" s="10" t="s">
         <v>621</v>
@@ -10899,10 +10896,10 @@
         <v>224</v>
       </c>
       <c r="W91" s="7">
-        <v>16.983899999999998</v>
+        <v>14.5861</v>
       </c>
       <c r="X91" s="7">
-        <v>-89.900700000000001</v>
+        <v>-90.563900000000004</v>
       </c>
       <c r="Y91" s="10" t="s">
         <v>621</v>
@@ -10980,10 +10977,10 @@
         <v>236</v>
       </c>
       <c r="W92" s="7">
-        <v>16.9984</v>
+        <v>14.586399999999999</v>
       </c>
       <c r="X92" s="7">
-        <v>-89.726500000000001</v>
+        <v>-90.563699999999997</v>
       </c>
       <c r="Y92" s="10" t="s">
         <v>621</v>
@@ -11061,10 +11058,10 @@
         <v>139</v>
       </c>
       <c r="W93" s="7">
-        <v>16.988399999999999</v>
+        <v>14.5871</v>
       </c>
       <c r="X93" s="7">
-        <v>-89.897099999999995</v>
+        <v>-90.563000000000002</v>
       </c>
       <c r="Y93" s="10" t="s">
         <v>621</v>
@@ -11142,10 +11139,10 @@
         <v>250</v>
       </c>
       <c r="W94" s="7">
-        <v>16.913900000000002</v>
+        <v>14.567299999999999</v>
       </c>
       <c r="X94" s="7">
-        <v>-89.897999999999996</v>
+        <v>-90.472099999999998</v>
       </c>
       <c r="Y94" s="10" t="s">
         <v>621</v>
@@ -11223,10 +11220,10 @@
         <v>260</v>
       </c>
       <c r="W95" s="7">
-        <v>16.914200000000001</v>
+        <v>14.539</v>
       </c>
       <c r="X95" s="7">
-        <v>-89.898200000000003</v>
+        <v>-90.454800000000006</v>
       </c>
       <c r="Y95" s="10" t="s">
         <v>621</v>
@@ -11304,10 +11301,10 @@
         <v>224</v>
       </c>
       <c r="W96" s="7">
-        <v>16.920100000000001</v>
+        <v>14.541499999999999</v>
       </c>
       <c r="X96" s="7">
-        <v>-89.894000000000005</v>
+        <v>-90.453800000000001</v>
       </c>
       <c r="Y96" s="10" t="s">
         <v>621</v>
@@ -11385,10 +11382,10 @@
         <v>588</v>
       </c>
       <c r="W97" s="7">
-        <v>16.920500000000001</v>
+        <v>14.541700000000001</v>
       </c>
       <c r="X97" s="7">
-        <v>-89.908299999999997</v>
+        <v>-90.448899999999995</v>
       </c>
       <c r="Y97" s="10" t="s">
         <v>621</v>
@@ -11466,10 +11463,10 @@
         <v>588</v>
       </c>
       <c r="W98" s="7">
-        <v>16.9207</v>
+        <v>14.5593</v>
       </c>
       <c r="X98" s="7">
-        <v>-89.905100000000004</v>
+        <v>-90.462100000000007</v>
       </c>
       <c r="Y98" s="10" t="s">
         <v>621</v>
@@ -11547,10 +11544,10 @@
         <v>236</v>
       </c>
       <c r="W99" s="7">
-        <v>16.9208</v>
+        <v>14.563000000000001</v>
       </c>
       <c r="X99" s="7">
-        <v>-89.909300000000002</v>
+        <v>-90.471500000000006</v>
       </c>
       <c r="Y99" s="10" t="s">
         <v>621</v>
@@ -11628,10 +11625,10 @@
         <v>220</v>
       </c>
       <c r="W100" s="7">
-        <v>16.921399999999998</v>
+        <v>14.5642</v>
       </c>
       <c r="X100" s="7">
-        <v>-89.901600000000002</v>
+        <v>-90.466399999999993</v>
       </c>
       <c r="Y100" s="10" t="s">
         <v>621</v>
@@ -11709,10 +11706,10 @@
         <v>220</v>
       </c>
       <c r="W101" s="7">
-        <v>16.921800000000001</v>
+        <v>14.539300000000001</v>
       </c>
       <c r="X101" s="7">
-        <v>-89.908199999999994</v>
+        <v>-90.452500000000001</v>
       </c>
       <c r="Y101" s="10" t="s">
         <v>621</v>
@@ -11790,10 +11787,10 @@
         <v>225</v>
       </c>
       <c r="W102" s="7">
-        <v>16.915700000000001</v>
+        <v>14.5433</v>
       </c>
       <c r="X102" s="7">
-        <v>-89.911500000000004</v>
+        <v>-90.4131</v>
       </c>
       <c r="Y102" s="10" t="s">
         <v>621</v>
@@ -11871,10 +11868,10 @@
         <v>226</v>
       </c>
       <c r="W103" s="7">
-        <v>16.866099999999999</v>
+        <v>14.5434</v>
       </c>
       <c r="X103" s="7">
-        <v>-89.992400000000004</v>
+        <v>-90.4131</v>
       </c>
       <c r="Y103" s="10" t="s">
         <v>621</v>
@@ -11952,10 +11949,10 @@
         <v>232</v>
       </c>
       <c r="W104" s="7">
-        <v>16.970600000000001</v>
+        <v>14.544600000000001</v>
       </c>
       <c r="X104" s="7">
-        <v>-89.929299999999998</v>
+        <v>-90.412999999999997</v>
       </c>
       <c r="Y104" s="10" t="s">
         <v>621</v>
@@ -12033,10 +12030,10 @@
         <v>607</v>
       </c>
       <c r="W105" s="7">
-        <v>17.081900000000001</v>
+        <v>14.5458</v>
       </c>
       <c r="X105" s="7">
-        <v>-90.858099999999993</v>
+        <v>-90.410300000000007</v>
       </c>
       <c r="Y105" s="10" t="s">
         <v>621</v>
@@ -12114,10 +12111,10 @@
         <v>232</v>
       </c>
       <c r="W106" s="7">
-        <v>17.0886</v>
+        <v>14.5459</v>
       </c>
       <c r="X106" s="7">
-        <v>-90.858199999999997</v>
+        <v>-90.409000000000006</v>
       </c>
       <c r="Y106" s="10" t="s">
         <v>621</v>
@@ -12195,10 +12192,10 @@
         <v>575</v>
       </c>
       <c r="W107" s="7">
-        <v>16.904199999999999</v>
+        <v>14.545999999999999</v>
       </c>
       <c r="X107" s="7">
-        <v>-89.898300000000006</v>
+        <v>-90.413399999999996</v>
       </c>
       <c r="Y107" s="10" t="s">
         <v>621</v>
@@ -12276,10 +12273,10 @@
         <v>177</v>
       </c>
       <c r="W108" s="7">
-        <v>16.910299999999999</v>
+        <v>14.546200000000001</v>
       </c>
       <c r="X108" s="7">
-        <v>-89.9084</v>
+        <v>-90.415000000000006</v>
       </c>
       <c r="Y108" s="10" t="s">
         <v>621</v>
@@ -12357,10 +12354,10 @@
         <v>283</v>
       </c>
       <c r="W109" s="7">
-        <v>16.7865</v>
+        <v>14.5464</v>
       </c>
       <c r="X109" s="7">
-        <v>-90.110799999999998</v>
+        <v>-90.415300000000002</v>
       </c>
       <c r="Y109" s="10" t="s">
         <v>620</v>
@@ -12438,10 +12435,10 @@
         <v>236</v>
       </c>
       <c r="W110" s="7">
-        <v>16.788799999999998</v>
+        <v>14.732799999999999</v>
       </c>
       <c r="X110" s="7">
-        <v>-90.108900000000006</v>
+        <v>-90.442899999999995</v>
       </c>
       <c r="Y110" s="10" t="s">
         <v>621</v>
@@ -12519,10 +12516,10 @@
         <v>612</v>
       </c>
       <c r="W111" s="7">
-        <v>16.793900000000001</v>
+        <v>14.6541</v>
       </c>
       <c r="X111" s="7">
-        <v>-89.934399999999997</v>
+        <v>-90.577100000000002</v>
       </c>
       <c r="Y111" s="10" t="s">
         <v>621</v>
@@ -12600,10 +12597,10 @@
         <v>379</v>
       </c>
       <c r="W112" s="7">
-        <v>16.794799999999999</v>
+        <v>14.6548</v>
       </c>
       <c r="X112" s="7">
-        <v>-89.933300000000003</v>
+        <v>-90.577600000000004</v>
       </c>
       <c r="Y112" s="10" t="s">
         <v>621</v>
@@ -12681,10 +12678,10 @@
         <v>380</v>
       </c>
       <c r="W113" s="7">
-        <v>16.795500000000001</v>
+        <v>14.6561</v>
       </c>
       <c r="X113" s="7">
-        <v>-89.932900000000004</v>
+        <v>-90.575299999999999</v>
       </c>
       <c r="Y113" s="10" t="s">
         <v>621</v>
@@ -12762,10 +12759,10 @@
         <v>333</v>
       </c>
       <c r="W114" s="7">
-        <v>16.798400000000001</v>
+        <v>14.629300000000001</v>
       </c>
       <c r="X114" s="7">
-        <v>-89.938599999999994</v>
+        <v>-90.607399999999998</v>
       </c>
       <c r="Y114" s="10" t="s">
         <v>621</v>
@@ -12843,10 +12840,10 @@
         <v>236</v>
       </c>
       <c r="W115" s="7">
-        <v>16.7987</v>
+        <v>14.6295</v>
       </c>
       <c r="X115" s="7">
-        <v>-89.935100000000006</v>
+        <v>-90.603899999999996</v>
       </c>
       <c r="Y115" s="10" t="s">
         <v>621</v>
@@ -12924,10 +12921,10 @@
         <v>334</v>
       </c>
       <c r="W116" s="7">
-        <v>16.7987</v>
+        <v>14.6296</v>
       </c>
       <c r="X116" s="7">
-        <v>-89.935699999999997</v>
+        <v>-90.604500000000002</v>
       </c>
       <c r="Y116" s="10" t="s">
         <v>621</v>
@@ -13005,10 +13002,10 @@
         <v>283</v>
       </c>
       <c r="W117" s="7">
-        <v>16.7989</v>
+        <v>14.629899999999999</v>
       </c>
       <c r="X117" s="7">
-        <v>-89.931700000000006</v>
+        <v>-90.6053</v>
       </c>
       <c r="Y117" s="10" t="s">
         <v>621</v>
@@ -13086,10 +13083,10 @@
         <v>260</v>
       </c>
       <c r="W118" s="7">
-        <v>16.798999999999999</v>
+        <v>14.630599999999999</v>
       </c>
       <c r="X118" s="7">
-        <v>-89.932400000000001</v>
+        <v>-90.6066</v>
       </c>
       <c r="Y118" s="10" t="s">
         <v>621</v>
@@ -13167,10 +13164,10 @@
         <v>224</v>
       </c>
       <c r="W119" s="7">
-        <v>16.798999999999999</v>
+        <v>14.6311</v>
       </c>
       <c r="X119" s="7">
-        <v>-89.932500000000005</v>
+        <v>-90.606399999999994</v>
       </c>
       <c r="Y119" s="10" t="s">
         <v>621</v>
@@ -13248,10 +13245,10 @@
         <v>336</v>
       </c>
       <c r="W120" s="7">
-        <v>16.799199999999999</v>
+        <v>14.631500000000001</v>
       </c>
       <c r="X120" s="7">
-        <v>-89.938699999999997</v>
+        <v>-90.608400000000003</v>
       </c>
       <c r="Y120" s="10" t="s">
         <v>621</v>
@@ -13329,10 +13326,10 @@
         <v>174</v>
       </c>
       <c r="W121" s="7">
-        <v>16.799299999999999</v>
+        <v>14.6432</v>
       </c>
       <c r="X121" s="7">
-        <v>-89.933700000000002</v>
+        <v>-90.595500000000001</v>
       </c>
       <c r="Y121" s="10" t="s">
         <v>620</v>
@@ -13410,10 +13407,10 @@
         <v>174</v>
       </c>
       <c r="W122" s="7">
-        <v>16.799399999999999</v>
+        <v>14.661099999999999</v>
       </c>
       <c r="X122" s="7">
-        <v>-89.936000000000007</v>
+        <v>-90.563299999999998</v>
       </c>
       <c r="Y122" s="10" t="s">
         <v>621</v>
@@ -13491,10 +13488,10 @@
         <v>361</v>
       </c>
       <c r="W123" s="7">
-        <v>16.799499999999998</v>
+        <v>14.6441</v>
       </c>
       <c r="X123" s="7">
-        <v>-89.936000000000007</v>
+        <v>-90.574100000000001</v>
       </c>
       <c r="Y123" s="10" t="s">
         <v>620</v>
@@ -13572,10 +13569,10 @@
         <v>373</v>
       </c>
       <c r="W124" s="7">
-        <v>16.799900000000001</v>
+        <v>14.6462</v>
       </c>
       <c r="X124" s="7">
-        <v>-89.9345</v>
+        <v>-90.588499999999996</v>
       </c>
       <c r="Y124" s="10" t="s">
         <v>620</v>
@@ -13653,10 +13650,10 @@
         <v>375</v>
       </c>
       <c r="W125" s="7">
-        <v>16.794799999999999</v>
+        <v>14.6469</v>
       </c>
       <c r="X125" s="7">
-        <v>-89.955200000000005</v>
+        <v>-90.587900000000005</v>
       </c>
       <c r="Y125" s="10" t="s">
         <v>621</v>
@@ -13734,10 +13731,10 @@
         <v>139</v>
       </c>
       <c r="W126" s="7">
-        <v>16.796700000000001</v>
+        <v>14.6342</v>
       </c>
       <c r="X126" s="7">
-        <v>-89.958500000000001</v>
+        <v>-90.5779</v>
       </c>
       <c r="Y126" s="10" t="s">
         <v>621</v>
@@ -13815,10 +13812,10 @@
         <v>220</v>
       </c>
       <c r="W127" s="7">
-        <v>16.739899999999999</v>
+        <v>14.613200000000001</v>
       </c>
       <c r="X127" s="7">
-        <v>-89.901399999999995</v>
+        <v>-90.601799999999997</v>
       </c>
       <c r="Y127" s="10" t="s">
         <v>621</v>
@@ -13896,10 +13893,10 @@
         <v>336</v>
       </c>
       <c r="W128" s="7">
-        <v>16.6448</v>
+        <v>14.645200000000001</v>
       </c>
       <c r="X128" s="7">
-        <v>-89.655299999999997</v>
+        <v>-90.577799999999996</v>
       </c>
       <c r="Y128" s="10" t="s">
         <v>621</v>
@@ -13977,10 +13974,10 @@
         <v>372</v>
       </c>
       <c r="W129" s="7">
-        <v>16.8004</v>
+        <v>14.646100000000001</v>
       </c>
       <c r="X129" s="7">
-        <v>-89.832800000000006</v>
+        <v>-90.579499999999996</v>
       </c>
       <c r="Y129" s="10" t="s">
         <v>621</v>
@@ -14058,10 +14055,10 @@
         <v>603</v>
       </c>
       <c r="W130" s="7">
-        <v>16.807400000000001</v>
+        <v>14.664400000000001</v>
       </c>
       <c r="X130" s="7">
-        <v>-89.824600000000004</v>
+        <v>-90.569800000000001</v>
       </c>
       <c r="Y130" s="10" t="s">
         <v>621</v>
@@ -14139,10 +14136,10 @@
         <v>38</v>
       </c>
       <c r="W131" s="7">
-        <v>16.5078</v>
+        <v>14.6671</v>
       </c>
       <c r="X131" s="7">
-        <v>-89.429599999999994</v>
+        <v>-90.570800000000006</v>
       </c>
       <c r="Y131" s="10" t="s">
         <v>621</v>
@@ -14220,10 +14217,10 @@
         <v>561</v>
       </c>
       <c r="W132" s="7">
-        <v>16.198899999999998</v>
+        <v>14.6736</v>
       </c>
       <c r="X132" s="7">
-        <v>-89.441999999999993</v>
+        <v>-90.564300000000003</v>
       </c>
       <c r="Y132" s="10" t="s">
         <v>621</v>
@@ -14301,10 +14298,10 @@
         <v>371</v>
       </c>
       <c r="W133" s="7">
-        <v>16.075299999999999</v>
+        <v>14.646000000000001</v>
       </c>
       <c r="X133" s="7">
-        <v>-89.813900000000004</v>
+        <v>-90.592799999999997</v>
       </c>
       <c r="Y133" s="10" t="s">
         <v>621</v>
@@ -14382,10 +14379,10 @@
         <v>374</v>
       </c>
       <c r="W134" s="7">
-        <v>16.104700000000001</v>
+        <v>14.646699999999999</v>
       </c>
       <c r="X134" s="7">
-        <v>-89.360699999999994</v>
+        <v>-90.592200000000005</v>
       </c>
       <c r="Y134" s="10" t="s">
         <v>621</v>
@@ -14463,10 +14460,10 @@
         <v>378</v>
       </c>
       <c r="W135" s="7">
-        <v>16.091999999999999</v>
+        <v>14.6526</v>
       </c>
       <c r="X135" s="7">
-        <v>-89.871399999999994</v>
+        <v>-90.587800000000001</v>
       </c>
       <c r="Y135" s="10" t="s">
         <v>621</v>
@@ -14544,10 +14541,10 @@
         <v>569</v>
       </c>
       <c r="W136" s="7">
-        <v>16.147400000000001</v>
+        <v>14.652699999999999</v>
       </c>
       <c r="X136" s="7">
-        <v>-89.405500000000004</v>
+        <v>-90.587699999999998</v>
       </c>
       <c r="Y136" s="10" t="s">
         <v>621</v>
@@ -14625,10 +14622,10 @@
         <v>174</v>
       </c>
       <c r="W137" s="7">
-        <v>16.150400000000001</v>
+        <v>14.6568</v>
       </c>
       <c r="X137" s="7">
-        <v>-89.322999999999993</v>
+        <v>-90.580699999999993</v>
       </c>
       <c r="Y137" s="10" t="s">
         <v>621</v>
@@ -14706,10 +14703,10 @@
         <v>578</v>
       </c>
       <c r="W138" s="7">
-        <v>16.5198</v>
+        <v>14.6403</v>
       </c>
       <c r="X138" s="7">
-        <v>-90.180899999999994</v>
+        <v>-90.599699999999999</v>
       </c>
       <c r="Y138" s="10" t="s">
         <v>620</v>
@@ -14787,10 +14784,10 @@
         <v>588</v>
       </c>
       <c r="W139" s="7">
-        <v>16.5198</v>
+        <v>14.5947</v>
       </c>
       <c r="X139" s="7">
-        <v>-90.180300000000003</v>
+        <v>-90.578400000000002</v>
       </c>
       <c r="Y139" s="10" t="s">
         <v>621</v>
@@ -14868,10 +14865,10 @@
         <v>168</v>
       </c>
       <c r="W140" s="7">
-        <v>16.5244</v>
+        <v>14.4617</v>
       </c>
       <c r="X140" s="7">
-        <v>-90.182500000000005</v>
+        <v>-90.44</v>
       </c>
       <c r="Y140" s="10" t="s">
         <v>621</v>
@@ -14949,10 +14946,10 @@
         <v>169</v>
       </c>
       <c r="W141" s="7">
-        <v>16.525099999999998</v>
+        <v>14.462999999999999</v>
       </c>
       <c r="X141" s="7">
-        <v>-90.186300000000003</v>
+        <v>-90.439800000000005</v>
       </c>
       <c r="Y141" s="10" t="s">
         <v>621</v>
@@ -15030,10 +15027,10 @@
         <v>283</v>
       </c>
       <c r="W142" s="7">
-        <v>16.525300000000001</v>
+        <v>14.4649</v>
       </c>
       <c r="X142" s="7">
-        <v>-90.187100000000001</v>
+        <v>-90.4405</v>
       </c>
       <c r="Y142" s="10" t="s">
         <v>621</v>
@@ -15111,10 +15108,10 @@
         <v>170</v>
       </c>
       <c r="W143" s="7">
-        <v>16.5258</v>
+        <v>14.4656</v>
       </c>
       <c r="X143" s="7">
-        <v>-90.188000000000002</v>
+        <v>-90.441299999999998</v>
       </c>
       <c r="Y143" s="10" t="s">
         <v>621</v>
@@ -15192,10 +15189,10 @@
         <v>171</v>
       </c>
       <c r="W144" s="7">
-        <v>16.5259</v>
+        <v>14.476800000000001</v>
       </c>
       <c r="X144" s="7">
-        <v>-90.185900000000004</v>
+        <v>-90.453199999999995</v>
       </c>
       <c r="Y144" s="10" t="s">
         <v>620</v>
@@ -15273,10 +15270,10 @@
         <v>578</v>
       </c>
       <c r="W145" s="7">
-        <v>16.5289</v>
+        <v>14.5183</v>
       </c>
       <c r="X145" s="7">
-        <v>-90.187399999999997</v>
+        <v>-90.58</v>
       </c>
       <c r="Y145" s="10" t="s">
         <v>621</v>
@@ -15354,10 +15351,10 @@
         <v>197</v>
       </c>
       <c r="W146" s="7">
-        <v>16.047999999999998</v>
+        <v>14.5219</v>
       </c>
       <c r="X146" s="7">
-        <v>-90.181299999999993</v>
+        <v>-90.587999999999994</v>
       </c>
       <c r="Y146" s="10" t="s">
         <v>621</v>
@@ -15435,10 +15432,10 @@
         <v>177</v>
       </c>
       <c r="W147" s="7">
-        <v>16.5289</v>
+        <v>14.5237</v>
       </c>
       <c r="X147" s="7">
-        <v>-90.046899999999994</v>
+        <v>-90.590900000000005</v>
       </c>
       <c r="Y147" s="10" t="s">
         <v>621</v>
@@ -15516,10 +15513,10 @@
         <v>44</v>
       </c>
       <c r="W148" s="7">
-        <v>16.331099999999999</v>
+        <v>14.5267</v>
       </c>
       <c r="X148" s="7">
-        <v>-90.1785</v>
+        <v>-90.589600000000004</v>
       </c>
       <c r="Y148" s="10" t="s">
         <v>621</v>
@@ -15597,10 +15594,10 @@
         <v>174</v>
       </c>
       <c r="W149" s="7">
-        <v>16.331099999999999</v>
+        <v>14.517200000000001</v>
       </c>
       <c r="X149" s="7">
-        <v>-90.171400000000006</v>
+        <v>-90.573800000000006</v>
       </c>
       <c r="Y149" s="10" t="s">
         <v>621</v>
@@ -15678,10 +15675,10 @@
         <v>229</v>
       </c>
       <c r="W150" s="7">
-        <v>16.519500000000001</v>
+        <v>14.5443</v>
       </c>
       <c r="X150" s="7">
-        <v>-90.186300000000003</v>
+        <v>-90.616799999999998</v>
       </c>
       <c r="Y150" s="10" t="s">
         <v>621</v>
@@ -15759,10 +15756,10 @@
         <v>174</v>
       </c>
       <c r="W151" s="7">
-        <v>17.053100000000001</v>
+        <v>14.4824</v>
       </c>
       <c r="X151" s="7">
-        <v>-89.162000000000006</v>
+        <v>-90.534199999999998</v>
       </c>
       <c r="Y151" s="10" t="s">
         <v>621</v>
@@ -15840,10 +15837,10 @@
         <v>177</v>
       </c>
       <c r="W152" s="7">
-        <v>17.055</v>
+        <v>14.4855</v>
       </c>
       <c r="X152" s="7">
-        <v>-89.1554</v>
+        <v>-90.534000000000006</v>
       </c>
       <c r="Y152" s="10" t="s">
         <v>621</v>
@@ -15921,10 +15918,10 @@
         <v>588</v>
       </c>
       <c r="W153" s="7">
-        <v>17.0563</v>
+        <v>14.548500000000001</v>
       </c>
       <c r="X153" s="7">
-        <v>-89.157700000000006</v>
+        <v>-90.526700000000005</v>
       </c>
       <c r="Y153" s="10" t="s">
         <v>621</v>
@@ -16002,10 +15999,10 @@
         <v>588</v>
       </c>
       <c r="W154" s="7">
-        <v>17.056699999999999</v>
+        <v>14.5526</v>
       </c>
       <c r="X154" s="7">
-        <v>-89.1571</v>
+        <v>-90.525999999999996</v>
       </c>
       <c r="Y154" s="10" t="s">
         <v>621</v>
@@ -16083,10 +16080,10 @@
         <v>591</v>
       </c>
       <c r="W155" s="7">
-        <v>17.057600000000001</v>
+        <v>14.485099999999999</v>
       </c>
       <c r="X155" s="7">
-        <v>-89.153400000000005</v>
+        <v>-90.536600000000007</v>
       </c>
       <c r="Y155" s="10" t="s">
         <v>621</v>
@@ -16164,10 +16161,10 @@
         <v>183</v>
       </c>
       <c r="W156" s="7">
-        <v>17.0596</v>
+        <v>14.4979</v>
       </c>
       <c r="X156" s="7">
-        <v>-89.152600000000007</v>
+        <v>-90.557100000000005</v>
       </c>
       <c r="Y156" s="10" t="s">
         <v>621</v>
@@ -16245,10 +16242,10 @@
         <v>190</v>
       </c>
       <c r="W157" s="7">
-        <v>17.062100000000001</v>
+        <v>14.504300000000001</v>
       </c>
       <c r="X157" s="7">
-        <v>-89.154700000000005</v>
+        <v>-90.566299999999998</v>
       </c>
       <c r="Y157" s="10" t="s">
         <v>621</v>
@@ -16320,10 +16317,10 @@
         <v>139</v>
       </c>
       <c r="W158" s="7">
-        <v>17.0625</v>
+        <v>14.4702</v>
       </c>
       <c r="X158" s="7">
-        <v>-89.154399999999995</v>
+        <v>-90.6374</v>
       </c>
       <c r="Y158" s="10" t="s">
         <v>621</v>
@@ -16395,10 +16392,10 @@
         <v>283</v>
       </c>
       <c r="W159" s="7">
-        <v>17.0626</v>
+        <v>14.480700000000001</v>
       </c>
       <c r="X159" s="7">
-        <v>-89.153000000000006</v>
+        <v>-90.535200000000003</v>
       </c>
       <c r="Y159" s="10" t="s">
         <v>621</v>
@@ -16470,10 +16467,10 @@
         <v>174</v>
       </c>
       <c r="W160" s="7">
-        <v>17.063099999999999</v>
+        <v>14.4808</v>
       </c>
       <c r="X160" s="7">
-        <v>-89.152900000000002</v>
+        <v>-90.535200000000003</v>
       </c>
       <c r="Y160" s="10" t="s">
         <v>621</v>
@@ -16545,10 +16542,10 @@
         <v>154</v>
       </c>
       <c r="W161" s="7">
-        <v>17.063199999999998</v>
+        <v>14.4815</v>
       </c>
       <c r="X161" s="7">
-        <v>-89.154399999999995</v>
+        <v>-90.627200000000002</v>
       </c>
       <c r="Y161" s="10" t="s">
         <v>621</v>
@@ -16620,10 +16617,10 @@
         <v>185</v>
       </c>
       <c r="W162" s="7">
-        <v>17.063700000000001</v>
+        <v>14.5023</v>
       </c>
       <c r="X162" s="7">
-        <v>-89.153499999999994</v>
+        <v>-90.562399999999997</v>
       </c>
       <c r="Y162" s="10" t="s">
         <v>621</v>
@@ -16695,10 +16692,10 @@
         <v>186</v>
       </c>
       <c r="W163" s="7">
-        <v>17.064499999999999</v>
+        <v>14.5023</v>
       </c>
       <c r="X163" s="7">
-        <v>-89.1541</v>
+        <v>-90.567599999999999</v>
       </c>
       <c r="Y163" s="10" t="s">
         <v>621</v>
@@ -16770,10 +16767,10 @@
         <v>191</v>
       </c>
       <c r="W164" s="7">
-        <v>17.064800000000002</v>
+        <v>14.5052</v>
       </c>
       <c r="X164" s="7">
-        <v>-89.154799999999994</v>
+        <v>-90.545199999999994</v>
       </c>
       <c r="Y164" s="10" t="s">
         <v>621</v>
@@ -16845,10 +16842,10 @@
         <v>606</v>
       </c>
       <c r="W165" s="7">
-        <v>17.065000000000001</v>
+        <v>14.5128</v>
       </c>
       <c r="X165" s="7">
-        <v>-89.153400000000005</v>
+        <v>-90.426000000000002</v>
       </c>
       <c r="Y165" s="10" t="s">
         <v>621</v>
@@ -16920,10 +16917,10 @@
         <v>236</v>
       </c>
       <c r="W166" s="7">
-        <v>17.065000000000001</v>
+        <v>14.523300000000001</v>
       </c>
       <c r="X166" s="7">
-        <v>-89.153499999999994</v>
+        <v>-90.5334</v>
       </c>
       <c r="Y166" s="10" t="s">
         <v>621</v>
@@ -16995,10 +16992,10 @@
         <v>588</v>
       </c>
       <c r="W167" s="7">
-        <v>17.0654</v>
+        <v>14.525499999999999</v>
       </c>
       <c r="X167" s="7">
-        <v>-89.153199999999998</v>
+        <v>-90.552300000000002</v>
       </c>
       <c r="Y167" s="10" t="s">
         <v>621</v>
@@ -17070,10 +17067,10 @@
         <v>236</v>
       </c>
       <c r="W168" s="7">
-        <v>17.065999999999999</v>
+        <v>14.532500000000001</v>
       </c>
       <c r="X168" s="7">
-        <v>-89.153800000000004</v>
+        <v>-90.585400000000007</v>
       </c>
       <c r="Y168" s="10" t="s">
         <v>621</v>
@@ -17145,10 +17142,10 @@
         <v>14</v>
       </c>
       <c r="W169" s="7">
-        <v>17.002600000000001</v>
+        <v>14.607200000000001</v>
       </c>
       <c r="X169" s="7">
-        <v>-89.178399999999996</v>
+        <v>-90.5732</v>
       </c>
       <c r="Y169" s="10" t="s">
         <v>621</v>
@@ -17220,10 +17217,10 @@
         <v>66</v>
       </c>
       <c r="W170" s="7">
-        <v>17.080400000000001</v>
+        <v>14.6419</v>
       </c>
       <c r="X170" s="7">
-        <v>-89.152000000000001</v>
+        <v>-90.596000000000004</v>
       </c>
       <c r="Y170" s="10" t="s">
         <v>621</v>
@@ -17295,10 +17292,10 @@
         <v>610</v>
       </c>
       <c r="W171" s="7">
-        <v>16.329999999999998</v>
+        <v>14.642099999999999</v>
       </c>
       <c r="X171" s="7">
-        <v>-89.420299999999997</v>
+        <v>-90.5959</v>
       </c>
       <c r="Y171" s="10" t="s">
         <v>621</v>
@@ -17370,10 +17367,10 @@
         <v>356</v>
       </c>
       <c r="W172" s="7">
-        <v>16.3307</v>
+        <v>14.6427</v>
       </c>
       <c r="X172" s="7">
-        <v>-89.422600000000003</v>
+        <v>-90.604399999999998</v>
       </c>
       <c r="Y172" s="10" t="s">
         <v>621</v>
@@ -17445,10 +17442,10 @@
         <v>368</v>
       </c>
       <c r="W173" s="7">
-        <v>16.3309</v>
+        <v>14.6456</v>
       </c>
       <c r="X173" s="7">
-        <v>-89.421800000000005</v>
+        <v>-90.5685</v>
       </c>
       <c r="Y173" s="10" t="s">
         <v>621</v>
@@ -17520,10 +17517,10 @@
         <v>236</v>
       </c>
       <c r="W174" s="7">
-        <v>16.331499999999998</v>
+        <v>14.657299999999999</v>
       </c>
       <c r="X174" s="7">
-        <v>-89.423100000000005</v>
+        <v>-90.579300000000003</v>
       </c>
       <c r="Y174" s="10" t="s">
         <v>621</v>
@@ -17595,10 +17592,10 @@
         <v>381</v>
       </c>
       <c r="W175" s="7">
-        <v>16.332100000000001</v>
+        <v>14.6592</v>
       </c>
       <c r="X175" s="7">
-        <v>-89.419399999999996</v>
+        <v>-90.595299999999995</v>
       </c>
       <c r="Y175" s="10" t="s">
         <v>620</v>
@@ -17670,10 +17667,10 @@
         <v>174</v>
       </c>
       <c r="W176" s="7">
-        <v>16.345400000000001</v>
+        <v>14.661</v>
       </c>
       <c r="X176" s="7">
-        <v>-89.419499999999999</v>
+        <v>-90.573300000000003</v>
       </c>
       <c r="Y176" s="10" t="s">
         <v>621</v>
@@ -17745,10 +17742,10 @@
         <v>386</v>
       </c>
       <c r="W177" s="7">
-        <v>16.393999999999998</v>
+        <v>14.6707</v>
       </c>
       <c r="X177" s="7">
-        <v>-89.444500000000005</v>
+        <v>-90.570400000000006</v>
       </c>
       <c r="Y177" s="10" t="s">
         <v>621</v>
@@ -17820,10 +17817,10 @@
         <v>260</v>
       </c>
       <c r="W178" s="7">
-        <v>16.658899999999999</v>
+        <v>14.681699999999999</v>
       </c>
       <c r="X178" s="7">
-        <v>-90.290400000000005</v>
+        <v>-90.5471</v>
       </c>
       <c r="Y178" s="10" t="s">
         <v>621</v>
@@ -17895,10 +17892,10 @@
         <v>392</v>
       </c>
       <c r="W179" s="7">
-        <v>16.659500000000001</v>
+        <v>14.6822</v>
       </c>
       <c r="X179" s="7">
-        <v>-90.291600000000003</v>
+        <v>-90.546300000000002</v>
       </c>
       <c r="Y179" s="10" t="s">
         <v>621</v>
@@ -17970,10 +17967,10 @@
         <v>393</v>
       </c>
       <c r="W180" s="7">
-        <v>16.642099999999999</v>
+        <v>14.682399999999999</v>
       </c>
       <c r="X180" s="7">
-        <v>-89.651700000000005</v>
+        <v>-90.546099999999996</v>
       </c>
       <c r="Y180" s="10" t="s">
         <v>620</v>
@@ -18045,10 +18042,10 @@
         <v>185</v>
       </c>
       <c r="W181" s="7">
-        <v>16.642299999999999</v>
+        <v>14.6828</v>
       </c>
       <c r="X181" s="7">
-        <v>-89.651399999999995</v>
+        <v>-90.5428</v>
       </c>
       <c r="Y181" s="10" t="s">
         <v>621</v>
@@ -18120,10 +18117,10 @@
         <v>82</v>
       </c>
       <c r="W182" s="7">
-        <v>16.642299999999999</v>
+        <v>14.6854</v>
       </c>
       <c r="X182" s="7">
-        <v>-89.651499999999999</v>
+        <v>-90.551199999999994</v>
       </c>
       <c r="Y182" s="10" t="s">
         <v>621</v>
@@ -18201,10 +18198,10 @@
         <v>240</v>
       </c>
       <c r="W183" s="7">
-        <v>16.642399999999999</v>
+        <v>14.5572</v>
       </c>
       <c r="X183" s="7">
-        <v>-89.651499999999999</v>
+        <v>-90.7376</v>
       </c>
       <c r="Y183" s="10" t="s">
         <v>621</v>
@@ -18282,10 +18279,10 @@
         <v>241</v>
       </c>
       <c r="W184" s="7">
-        <v>15.947900000000001</v>
+        <v>14.5572</v>
       </c>
       <c r="X184" s="7">
-        <v>-89.870400000000004</v>
+        <v>-90.734999999999999</v>
       </c>
       <c r="Y184" s="10" t="s">
         <v>621</v>
@@ -18363,10 +18360,10 @@
         <v>242</v>
       </c>
       <c r="W185" s="7">
-        <v>15.9673</v>
+        <v>14.5626</v>
       </c>
       <c r="X185" s="7">
-        <v>-89.866699999999994</v>
+        <v>-90.737200000000001</v>
       </c>
       <c r="Y185" s="10" t="s">
         <v>621</v>
@@ -18444,10 +18441,10 @@
         <v>340</v>
       </c>
       <c r="W186" s="7">
-        <v>15.9726</v>
+        <v>14.633100000000001</v>
       </c>
       <c r="X186" s="7">
-        <v>-89.915700000000001</v>
+        <v>-90.676000000000002</v>
       </c>
       <c r="Y186" s="10" t="s">
         <v>621</v>
@@ -18525,10 +18522,10 @@
         <v>322</v>
       </c>
       <c r="W187" s="7">
-        <v>15.978400000000001</v>
+        <v>14.6334</v>
       </c>
       <c r="X187" s="7">
-        <v>-89.881699999999995</v>
+        <v>-90.674899999999994</v>
       </c>
       <c r="Y187" s="10" t="s">
         <v>621</v>
@@ -18606,10 +18603,10 @@
         <v>294</v>
       </c>
       <c r="W188" s="7">
-        <v>16.050599999999999</v>
+        <v>14.6106</v>
       </c>
       <c r="X188" s="7">
-        <v>-89.614599999999996</v>
+        <v>-90.657600000000002</v>
       </c>
       <c r="Y188" s="10" t="s">
         <v>621</v>
@@ -18687,10 +18684,10 @@
         <v>295</v>
       </c>
       <c r="W189" s="7">
-        <v>16.114599999999999</v>
+        <v>14.611800000000001</v>
       </c>
       <c r="X189" s="7">
-        <v>-89.876099999999994</v>
+        <v>-90.655600000000007</v>
       </c>
       <c r="Y189" s="10" t="s">
         <v>621</v>
@@ -18762,10 +18759,10 @@
         <v>38</v>
       </c>
       <c r="W190" s="7">
-        <v>16.146599999999999</v>
+        <v>14.542899999999999</v>
       </c>
       <c r="X190" s="7">
-        <v>-90.180400000000006</v>
+        <v>-90.746200000000002</v>
       </c>
       <c r="Y190" s="10" t="s">
         <v>621</v>
@@ -18837,10 +18834,10 @@
         <v>237</v>
       </c>
       <c r="W191" s="7">
-        <v>16.260300000000001</v>
+        <v>14.5488</v>
       </c>
       <c r="X191" s="7">
-        <v>-89.266400000000004</v>
+        <v>-90.725999999999999</v>
       </c>
       <c r="Y191" s="10" t="s">
         <v>621</v>
@@ -18918,10 +18915,10 @@
         <v>224</v>
       </c>
       <c r="W192" s="7">
-        <v>16.264800000000001</v>
+        <v>14.7371</v>
       </c>
       <c r="X192" s="7">
-        <v>-89.258600000000001</v>
+        <v>-90.887200000000007</v>
       </c>
       <c r="Y192" s="10" t="s">
         <v>621</v>
@@ -18999,10 +18996,10 @@
         <v>416</v>
       </c>
       <c r="W193" s="7">
-        <v>16.303599999999999</v>
+        <v>14.738099999999999</v>
       </c>
       <c r="X193" s="7">
-        <v>-89.420900000000003</v>
+        <v>-90.887200000000007</v>
       </c>
       <c r="Y193" s="10" t="s">
         <v>621</v>
@@ -19080,10 +19077,10 @@
         <v>260</v>
       </c>
       <c r="W194" s="7">
-        <v>16.325299999999999</v>
+        <v>14.7608</v>
       </c>
       <c r="X194" s="7">
-        <v>-89.405900000000003</v>
+        <v>-90.991799999999998</v>
       </c>
       <c r="Y194" s="10" t="s">
         <v>621</v>
@@ -19161,10 +19158,10 @@
         <v>548</v>
       </c>
       <c r="W195" s="7">
-        <v>16.3352</v>
+        <v>14.7623</v>
       </c>
       <c r="X195" s="7">
-        <v>-89.434299999999993</v>
+        <v>-90.992699999999999</v>
       </c>
       <c r="Y195" s="10" t="s">
         <v>621</v>
@@ -19242,10 +19239,10 @@
         <v>236</v>
       </c>
       <c r="W196" s="7">
-        <v>16.3523</v>
+        <v>14.7623</v>
       </c>
       <c r="X196" s="7">
-        <v>-90.214699999999993</v>
+        <v>-90.992800000000003</v>
       </c>
       <c r="Y196" s="10" t="s">
         <v>621</v>
@@ -19323,10 +19320,10 @@
         <v>564</v>
       </c>
       <c r="W197" s="7">
-        <v>16.394200000000001</v>
+        <v>14.2982</v>
       </c>
       <c r="X197" s="7">
-        <v>-89.497399999999999</v>
+        <v>-90.785399999999996</v>
       </c>
       <c r="Y197" s="10" t="s">
         <v>621</v>
@@ -19404,10 +19401,10 @@
         <v>127</v>
       </c>
       <c r="W198" s="7">
-        <v>16.432400000000001</v>
+        <v>14.301</v>
       </c>
       <c r="X198" s="7">
-        <v>-90.190700000000007</v>
+        <v>-90.785200000000003</v>
       </c>
       <c r="Y198" s="10" t="s">
         <v>621</v>
@@ -19485,10 +19482,10 @@
         <v>135</v>
       </c>
       <c r="W199" s="7">
-        <v>16.483699999999999</v>
+        <v>14.3322</v>
       </c>
       <c r="X199" s="7">
-        <v>-89.650700000000001</v>
+        <v>-91.023799999999994</v>
       </c>
       <c r="Y199" s="10" t="s">
         <v>621</v>
@@ -19566,10 +19563,10 @@
         <v>569</v>
       </c>
       <c r="W200" s="7">
-        <v>16.500499999999999</v>
+        <v>14.3323</v>
       </c>
       <c r="X200" s="7">
-        <v>-90.123900000000006</v>
+        <v>-91.025199999999998</v>
       </c>
       <c r="Y200" s="10" t="s">
         <v>621</v>
@@ -19647,10 +19644,10 @@
         <v>136</v>
       </c>
       <c r="W201" s="7">
-        <v>16.507200000000001</v>
+        <v>14.3325</v>
       </c>
       <c r="X201" s="7">
-        <v>-89.418400000000005</v>
+        <v>-91.025800000000004</v>
       </c>
       <c r="Y201" s="10" t="s">
         <v>621</v>
@@ -19728,10 +19725,10 @@
         <v>137</v>
       </c>
       <c r="W202" s="7">
-        <v>16.5077</v>
+        <v>14.332700000000001</v>
       </c>
       <c r="X202" s="7">
-        <v>-89.414000000000001</v>
+        <v>-91.024600000000007</v>
       </c>
       <c r="Y202" s="10" t="s">
         <v>621</v>
@@ -19809,10 +19806,10 @@
         <v>224</v>
       </c>
       <c r="W203" s="7">
-        <v>16.5077</v>
+        <v>14.3329</v>
       </c>
       <c r="X203" s="7">
-        <v>-89.413499999999999</v>
+        <v>-91.024600000000007</v>
       </c>
       <c r="Y203" s="10" t="s">
         <v>621</v>
@@ -19890,10 +19887,10 @@
         <v>138</v>
       </c>
       <c r="W204" s="7">
-        <v>16.507899999999999</v>
+        <v>14.333</v>
       </c>
       <c r="X204" s="7">
-        <v>-89.418000000000006</v>
+        <v>-91.024199999999993</v>
       </c>
       <c r="Y204" s="10" t="s">
         <v>621</v>
@@ -19971,10 +19968,10 @@
         <v>604</v>
       </c>
       <c r="W205" s="7">
-        <v>16.507899999999999</v>
+        <v>14.3338</v>
       </c>
       <c r="X205" s="7">
-        <v>-89.419200000000004</v>
+        <v>-91.024100000000004</v>
       </c>
       <c r="Y205" s="10" t="s">
         <v>621</v>
@@ -20052,10 +20049,10 @@
         <v>139</v>
       </c>
       <c r="W206" s="7">
-        <v>16.507999999999999</v>
+        <v>14.3339</v>
       </c>
       <c r="X206" s="7">
-        <v>-89.417100000000005</v>
+        <v>-91.024299999999997</v>
       </c>
       <c r="Y206" s="10" t="s">
         <v>621</v>
@@ -20133,10 +20130,10 @@
         <v>140</v>
       </c>
       <c r="W207" s="7">
-        <v>16.509</v>
+        <v>14.334099999999999</v>
       </c>
       <c r="X207" s="7">
-        <v>-89.412700000000001</v>
+        <v>-91.024500000000003</v>
       </c>
       <c r="Y207" s="10" t="s">
         <v>621</v>
@@ -20214,10 +20211,10 @@
         <v>141</v>
       </c>
       <c r="W208" s="7">
-        <v>16.509499999999999</v>
+        <v>14.334199999999999</v>
       </c>
       <c r="X208" s="7">
-        <v>-89.417000000000002</v>
+        <v>-91.026200000000003</v>
       </c>
       <c r="Y208" s="10" t="s">
         <v>621</v>
@@ -20295,10 +20292,10 @@
         <v>153</v>
       </c>
       <c r="W209" s="7">
-        <v>16.510000000000002</v>
+        <v>14.334300000000001</v>
       </c>
       <c r="X209" s="7">
-        <v>-89.4131</v>
+        <v>-91.024199999999993</v>
       </c>
       <c r="Y209" s="10" t="s">
         <v>621</v>
@@ -20376,10 +20373,10 @@
         <v>595</v>
       </c>
       <c r="W210" s="7">
-        <v>16.511399999999998</v>
+        <v>14.3072</v>
       </c>
       <c r="X210" s="7">
-        <v>-89.423199999999994</v>
+        <v>-90.965800000000002</v>
       </c>
       <c r="Y210" s="10" t="s">
         <v>620</v>
@@ -20457,10 +20454,10 @@
         <v>139</v>
       </c>
       <c r="W211" s="7">
-        <v>16.511500000000002</v>
+        <v>14.0855</v>
       </c>
       <c r="X211" s="7">
-        <v>-89.413899999999998</v>
+        <v>-91.050700000000006</v>
       </c>
       <c r="Y211" s="10" t="s">
         <v>620</v>
@@ -20538,10 +20535,10 @@
         <v>154</v>
       </c>
       <c r="W212" s="7">
-        <v>16.511600000000001</v>
+        <v>13.9216</v>
       </c>
       <c r="X212" s="7">
-        <v>-89.413799999999995</v>
+        <v>-90.820099999999996</v>
       </c>
       <c r="Y212" s="10" t="s">
         <v>620</v>
@@ -20619,10 +20616,10 @@
         <v>110</v>
       </c>
       <c r="W213" s="7">
-        <v>16.511600000000001</v>
+        <v>13.9216</v>
       </c>
       <c r="X213" s="7">
-        <v>-89.413700000000006</v>
+        <v>-90.820099999999996</v>
       </c>
       <c r="Y213" s="10" t="s">
         <v>621</v>
@@ -20700,10 +20697,10 @@
         <v>38</v>
       </c>
       <c r="W214" s="7">
-        <v>16.512</v>
+        <v>13.928900000000001</v>
       </c>
       <c r="X214" s="7">
-        <v>-89.413899999999998</v>
+        <v>-90.819500000000005</v>
       </c>
       <c r="Y214" s="10" t="s">
         <v>621</v>
@@ -20775,10 +20772,10 @@
         <v>597</v>
       </c>
       <c r="W215" s="7">
-        <v>16.5121</v>
+        <v>13.932</v>
       </c>
       <c r="X215" s="7">
-        <v>-89.418599999999998</v>
+        <v>-90.778300000000002</v>
       </c>
       <c r="Y215" s="10" t="s">
         <v>620</v>
@@ -20856,10 +20853,10 @@
         <v>38</v>
       </c>
       <c r="W216" s="7">
-        <v>16.5122</v>
+        <v>14.3865</v>
       </c>
       <c r="X216" s="7">
-        <v>-89.418599999999998</v>
+        <v>-90.370400000000004</v>
       </c>
       <c r="Y216" s="10" t="s">
         <v>620</v>
@@ -20937,10 +20934,10 @@
         <v>46</v>
       </c>
       <c r="W217" s="7">
-        <v>16.5122</v>
+        <v>14.768599999999999</v>
       </c>
       <c r="X217" s="7">
-        <v>-89.418700000000001</v>
+        <v>-91.183300000000003</v>
       </c>
       <c r="Y217" s="10" t="s">
         <v>620</v>
@@ -21018,10 +21015,10 @@
         <v>283</v>
       </c>
       <c r="W218" s="7">
-        <v>16.5123</v>
+        <v>14.770899999999999</v>
       </c>
       <c r="X218" s="7">
-        <v>-89.418700000000001</v>
+        <v>-91.182699999999997</v>
       </c>
       <c r="Y218" s="10" t="s">
         <v>620</v>
@@ -21099,10 +21096,10 @@
         <v>111</v>
       </c>
       <c r="W219" s="7">
-        <v>16.512599999999999</v>
+        <v>14.7729</v>
       </c>
       <c r="X219" s="7">
-        <v>-89.419399999999996</v>
+        <v>-91.184600000000003</v>
       </c>
       <c r="Y219" s="10" t="s">
         <v>621</v>
@@ -21180,10 +21177,10 @@
         <v>427</v>
       </c>
       <c r="W220" s="7">
-        <v>16.512899999999998</v>
+        <v>14.773</v>
       </c>
       <c r="X220" s="7">
-        <v>-89.419300000000007</v>
+        <v>-91.183599999999998</v>
       </c>
       <c r="Y220" s="10" t="s">
         <v>621</v>
@@ -21261,10 +21258,10 @@
         <v>236</v>
       </c>
       <c r="W221" s="7">
-        <v>16.513100000000001</v>
+        <v>14.773899999999999</v>
       </c>
       <c r="X221" s="7">
-        <v>-89.419700000000006</v>
+        <v>-91.183700000000002</v>
       </c>
       <c r="Y221" s="10" t="s">
         <v>621</v>
@@ -21342,10 +21339,10 @@
         <v>578</v>
       </c>
       <c r="W222" s="7">
-        <v>16.513400000000001</v>
+        <v>14.775700000000001</v>
       </c>
       <c r="X222" s="7">
-        <v>-89.418899999999994</v>
+        <v>-91.183800000000005</v>
       </c>
       <c r="Y222" s="10" t="s">
         <v>620</v>
@@ -21423,10 +21420,10 @@
         <v>428</v>
       </c>
       <c r="W223" s="7">
-        <v>16.513400000000001</v>
+        <v>14.777699999999999</v>
       </c>
       <c r="X223" s="7">
-        <v>-89.418800000000005</v>
+        <v>-91.182000000000002</v>
       </c>
       <c r="Y223" s="10" t="s">
         <v>621</v>
@@ -21504,10 +21501,10 @@
         <v>432</v>
       </c>
       <c r="W224" s="7">
-        <v>16.513400000000001</v>
+        <v>14.7966</v>
       </c>
       <c r="X224" s="7">
-        <v>-89.414400000000001</v>
+        <v>-91.181399999999996</v>
       </c>
       <c r="Y224" s="10" t="s">
         <v>620</v>
@@ -21585,10 +21582,10 @@
         <v>432</v>
       </c>
       <c r="W225" s="7">
-        <v>16.513400000000001</v>
+        <v>14.7967</v>
       </c>
       <c r="X225" s="7">
-        <v>-89.414199999999994</v>
+        <v>-91.181399999999996</v>
       </c>
       <c r="Y225" s="10" t="s">
         <v>620</v>
@@ -21666,10 +21663,10 @@
         <v>433</v>
       </c>
       <c r="W226" s="7">
-        <v>16.513400000000001</v>
+        <v>14.7974</v>
       </c>
       <c r="X226" s="7">
-        <v>-89.4191</v>
+        <v>-91.1815</v>
       </c>
       <c r="Y226" s="10" t="s">
         <v>621</v>
@@ -21747,10 +21744,10 @@
         <v>445</v>
       </c>
       <c r="W227" s="7">
-        <v>16.5136</v>
+        <v>14.854699999999999</v>
       </c>
       <c r="X227" s="7">
-        <v>-90.061599999999999</v>
+        <v>-91.149299999999997</v>
       </c>
       <c r="Y227" s="10" t="s">
         <v>621</v>
@@ -21828,10 +21825,10 @@
         <v>418</v>
       </c>
       <c r="W228" s="7">
-        <v>16.5137</v>
+        <v>14.744</v>
       </c>
       <c r="X228" s="7">
-        <v>-89.418800000000005</v>
+        <v>-91.156199999999998</v>
       </c>
       <c r="Y228" s="10" t="s">
         <v>621</v>
@@ -21909,10 +21906,10 @@
         <v>419</v>
       </c>
       <c r="W229" s="7">
-        <v>16.5137</v>
+        <v>14.7446</v>
       </c>
       <c r="X229" s="7">
-        <v>-89.420500000000004</v>
+        <v>-91.154200000000003</v>
       </c>
       <c r="Y229" s="10" t="s">
         <v>620</v>
@@ -21990,10 +21987,10 @@
         <v>112</v>
       </c>
       <c r="W230" s="7">
-        <v>16.5138</v>
+        <v>14.746499999999999</v>
       </c>
       <c r="X230" s="7">
-        <v>-89.418499999999995</v>
+        <v>-91.152600000000007</v>
       </c>
       <c r="Y230" s="10" t="s">
         <v>621</v>
@@ -22071,10 +22068,10 @@
         <v>38</v>
       </c>
       <c r="W231" s="7">
-        <v>16.5138</v>
+        <v>14.628299999999999</v>
       </c>
       <c r="X231" s="7">
-        <v>-89.417299999999997</v>
+        <v>-91.144800000000004</v>
       </c>
       <c r="Y231" s="10" t="s">
         <v>620</v>
@@ -22152,10 +22149,10 @@
         <v>335</v>
       </c>
       <c r="W232" s="7">
-        <v>16.5139</v>
+        <v>14.631</v>
       </c>
       <c r="X232" s="7">
-        <v>-89.416899999999998</v>
+        <v>-91.146199999999993</v>
       </c>
       <c r="Y232" s="10" t="s">
         <v>620</v>
@@ -22233,10 +22230,10 @@
         <v>545</v>
       </c>
       <c r="W233" s="7">
-        <v>16.513999999999999</v>
+        <v>14.6313</v>
       </c>
       <c r="X233" s="7">
-        <v>-89.415400000000005</v>
+        <v>-91.144000000000005</v>
       </c>
       <c r="Y233" s="10" t="s">
         <v>621</v>
@@ -22314,10 +22311,10 @@
         <v>38</v>
       </c>
       <c r="W234" s="7">
-        <v>16.513999999999999</v>
+        <v>14.632999999999999</v>
       </c>
       <c r="X234" s="7">
-        <v>-89.417400000000001</v>
+        <v>-91.142600000000002</v>
       </c>
       <c r="Y234" s="10" t="s">
         <v>621</v>
@@ -22395,10 +22392,10 @@
         <v>341</v>
       </c>
       <c r="W235" s="7">
-        <v>16.514299999999999</v>
+        <v>14.6332</v>
       </c>
       <c r="X235" s="7">
-        <v>-89.417000000000002</v>
+        <v>-91.142600000000002</v>
       </c>
       <c r="Y235" s="10" t="s">
         <v>620</v>
@@ -22476,10 +22473,10 @@
         <v>342</v>
       </c>
       <c r="W236" s="7">
-        <v>16.514500000000002</v>
+        <v>14.6333</v>
       </c>
       <c r="X236" s="7">
-        <v>-89.416899999999998</v>
+        <v>-91.145300000000006</v>
       </c>
       <c r="Y236" s="10" t="s">
         <v>621</v>
@@ -22557,10 +22554,10 @@
         <v>578</v>
       </c>
       <c r="W237" s="7">
-        <v>16.514500000000002</v>
+        <v>14.6347</v>
       </c>
       <c r="X237" s="7">
-        <v>-89.416899999999998</v>
+        <v>-91.142600000000002</v>
       </c>
       <c r="Y237" s="10" t="s">
         <v>620</v>
@@ -22638,10 +22635,10 @@
         <v>346</v>
       </c>
       <c r="W238" s="7">
-        <v>16.5151</v>
+        <v>14.6351</v>
       </c>
       <c r="X238" s="7">
-        <v>-89.414199999999994</v>
+        <v>-91.142499999999998</v>
       </c>
       <c r="Y238" s="10" t="s">
         <v>621</v>
@@ -22719,10 +22716,10 @@
         <v>60</v>
       </c>
       <c r="W239" s="7">
-        <v>16.5151</v>
+        <v>14.6919</v>
       </c>
       <c r="X239" s="7">
-        <v>-89.416899999999998</v>
+        <v>-91.2727</v>
       </c>
       <c r="Y239" s="10" t="s">
         <v>620</v>
@@ -22800,10 +22797,10 @@
         <v>342</v>
       </c>
       <c r="W240" s="7">
-        <v>16.5152</v>
+        <v>14.6919</v>
       </c>
       <c r="X240" s="7">
-        <v>-89.419499999999999</v>
+        <v>-91.272599999999997</v>
       </c>
       <c r="Y240" s="10" t="s">
         <v>621</v>
@@ -22881,10 +22878,10 @@
         <v>236</v>
       </c>
       <c r="W241" s="7">
-        <v>16.5153</v>
+        <v>14.638</v>
       </c>
       <c r="X241" s="7">
-        <v>-89.416399999999996</v>
+        <v>-91.2303</v>
       </c>
       <c r="Y241" s="10" t="s">
         <v>621</v>
@@ -22956,10 +22953,10 @@
         <v>397</v>
       </c>
       <c r="W242" s="7">
-        <v>16.5197</v>
+        <v>14.6912</v>
       </c>
       <c r="X242" s="7">
-        <v>-90.182100000000005</v>
+        <v>-91.274100000000004</v>
       </c>
       <c r="Y242" s="10" t="s">
         <v>621</v>
@@ -23031,10 +23028,10 @@
         <v>567</v>
       </c>
       <c r="W243" s="7">
-        <v>16.5199</v>
+        <v>14.7781</v>
       </c>
       <c r="X243" s="7">
-        <v>-90.182100000000005</v>
+        <v>-91.183499999999995</v>
       </c>
       <c r="Y243" s="10" t="s">
         <v>621</v>
@@ -23112,10 +23109,10 @@
         <v>224</v>
       </c>
       <c r="W244" s="7">
-        <v>16.5199</v>
+        <v>14.832100000000001</v>
       </c>
       <c r="X244" s="7">
-        <v>-90.182000000000002</v>
+        <v>-91.519400000000005</v>
       </c>
       <c r="Y244" s="10" t="s">
         <v>621</v>
@@ -23193,10 +23190,10 @@
         <v>340</v>
       </c>
       <c r="W245" s="7">
-        <v>16.5274</v>
+        <v>14.832599999999999</v>
       </c>
       <c r="X245" s="7">
-        <v>-90.191199999999995</v>
+        <v>-91.517799999999994</v>
       </c>
       <c r="Y245" s="10" t="s">
         <v>621</v>
@@ -23274,10 +23271,10 @@
         <v>19</v>
       </c>
       <c r="W246" s="7">
-        <v>16.529299999999999</v>
+        <v>14.833299999999999</v>
       </c>
       <c r="X246" s="7">
-        <v>-90.189099999999996</v>
+        <v>-91.516400000000004</v>
       </c>
       <c r="Y246" s="10" t="s">
         <v>621</v>
@@ -23355,10 +23352,10 @@
         <v>224</v>
       </c>
       <c r="W247" s="7">
-        <v>16.529800000000002</v>
+        <v>14.8338</v>
       </c>
       <c r="X247" s="7">
-        <v>-90.189499999999995</v>
+        <v>-91.517399999999995</v>
       </c>
       <c r="Y247" s="10" t="s">
         <v>621</v>
@@ -23436,10 +23433,10 @@
         <v>439</v>
       </c>
       <c r="W248" s="7">
-        <v>16.53</v>
+        <v>14.8371</v>
       </c>
       <c r="X248" s="7">
-        <v>-90.189499999999995</v>
+        <v>-91.525599999999997</v>
       </c>
       <c r="Y248" s="10" t="s">
         <v>621</v>
@@ -23517,10 +23514,10 @@
         <v>440</v>
       </c>
       <c r="W249" s="7">
-        <v>16.530200000000001</v>
+        <v>14.8391</v>
       </c>
       <c r="X249" s="7">
-        <v>-90.189700000000002</v>
+        <v>-91.506799999999998</v>
       </c>
       <c r="Y249" s="10" t="s">
         <v>621</v>
@@ -23598,10 +23595,10 @@
         <v>441</v>
       </c>
       <c r="W250" s="7">
-        <v>16.531099999999999</v>
+        <v>14.8398</v>
       </c>
       <c r="X250" s="7">
-        <v>-90.189700000000002</v>
+        <v>-91.517899999999997</v>
       </c>
       <c r="Y250" s="10" t="s">
         <v>621</v>
@@ -23679,10 +23676,10 @@
         <v>442</v>
       </c>
       <c r="W251" s="7">
-        <v>16.552900000000001</v>
+        <v>14.840199999999999</v>
       </c>
       <c r="X251" s="7">
-        <v>-89.942099999999996</v>
+        <v>-91.521000000000001</v>
       </c>
       <c r="Y251" s="10" t="s">
         <v>621</v>
@@ -23760,10 +23757,10 @@
         <v>563</v>
       </c>
       <c r="W252" s="7">
-        <v>16.568100000000001</v>
+        <v>14.842000000000001</v>
       </c>
       <c r="X252" s="7">
-        <v>-89.9405</v>
+        <v>-91.520700000000005</v>
       </c>
       <c r="Y252" s="10" t="s">
         <v>621</v>
@@ -23841,10 +23838,10 @@
         <v>165</v>
       </c>
       <c r="W253" s="7">
-        <v>16.5731</v>
+        <v>14.843400000000001</v>
       </c>
       <c r="X253" s="7">
-        <v>-89.859399999999994</v>
+        <v>-91.520399999999995</v>
       </c>
       <c r="Y253" s="10" t="s">
         <v>621</v>
@@ -23922,10 +23919,10 @@
         <v>177</v>
       </c>
       <c r="W254" s="7">
-        <v>16.585699999999999</v>
+        <v>14.843999999999999</v>
       </c>
       <c r="X254" s="7">
-        <v>-89.845399999999998</v>
+        <v>-91.517499999999998</v>
       </c>
       <c r="Y254" s="10" t="s">
         <v>621</v>
@@ -24003,10 +24000,10 @@
         <v>165</v>
       </c>
       <c r="W255" s="7">
-        <v>16.593499999999999</v>
+        <v>14.847300000000001</v>
       </c>
       <c r="X255" s="7">
-        <v>-89.509500000000003</v>
+        <v>-91.521600000000007</v>
       </c>
       <c r="Y255" s="10" t="s">
         <v>621</v>
@@ -24084,10 +24081,10 @@
         <v>342</v>
       </c>
       <c r="W256" s="7">
-        <v>16.594100000000001</v>
+        <v>14.8474</v>
       </c>
       <c r="X256" s="7">
-        <v>-89.511200000000002</v>
+        <v>-91.522900000000007</v>
       </c>
       <c r="Y256" s="10" t="s">
         <v>620</v>
@@ -24165,10 +24162,10 @@
         <v>112</v>
       </c>
       <c r="W257" s="7">
-        <v>16.6203</v>
+        <v>14.8477</v>
       </c>
       <c r="X257" s="7">
-        <v>-90.180499999999995</v>
+        <v>-91.526799999999994</v>
       </c>
       <c r="Y257" s="10" t="s">
         <v>621</v>
@@ -24246,10 +24243,10 @@
         <v>613</v>
       </c>
       <c r="W258" s="7">
-        <v>16.624099999999999</v>
+        <v>14.8576</v>
       </c>
       <c r="X258" s="7">
-        <v>-89.874600000000001</v>
+        <v>-91.540400000000005</v>
       </c>
       <c r="Y258" s="10" t="s">
         <v>621</v>
@@ -24327,10 +24324,10 @@
         <v>236</v>
       </c>
       <c r="W259" s="7">
-        <v>16.635400000000001</v>
+        <v>14.8596</v>
       </c>
       <c r="X259" s="7">
-        <v>-90.183300000000003</v>
+        <v>-91.520600000000002</v>
       </c>
       <c r="Y259" s="10" t="s">
         <v>621</v>
@@ -24408,10 +24405,10 @@
         <v>242</v>
       </c>
       <c r="W260" s="7">
-        <v>16.640599999999999</v>
+        <v>14.8803</v>
       </c>
       <c r="X260" s="7">
-        <v>-90.337199999999996</v>
+        <v>-91.458799999999997</v>
       </c>
       <c r="Y260" s="10" t="s">
         <v>621</v>
@@ -24489,10 +24486,10 @@
         <v>165</v>
       </c>
       <c r="W261" s="7">
-        <v>16.660399999999999</v>
+        <v>14.7042</v>
       </c>
       <c r="X261" s="7">
-        <v>-90.2941</v>
+        <v>-91.8613</v>
       </c>
       <c r="Y261" s="10" t="s">
         <v>621</v>
@@ -24570,10 +24567,10 @@
         <v>207</v>
       </c>
       <c r="W262" s="7">
-        <v>16.734100000000002</v>
+        <v>14.5314</v>
       </c>
       <c r="X262" s="7">
-        <v>-89.376000000000005</v>
+        <v>-91.504900000000006</v>
       </c>
       <c r="Y262" s="10" t="s">
         <v>621</v>
@@ -24651,10 +24648,10 @@
         <v>596</v>
       </c>
       <c r="W263" s="7">
-        <v>16.773599999999998</v>
+        <v>14.531499999999999</v>
       </c>
       <c r="X263" s="7">
-        <v>-90.568399999999997</v>
+        <v>-91.502899999999997</v>
       </c>
       <c r="Y263" s="10" t="s">
         <v>621</v>
@@ -24732,10 +24729,10 @@
         <v>95</v>
       </c>
       <c r="W264" s="7">
-        <v>16.794899999999998</v>
+        <v>14.5326</v>
       </c>
       <c r="X264" s="7">
-        <v>-89.947000000000003</v>
+        <v>-91.506100000000004</v>
       </c>
       <c r="Y264" s="10" t="s">
         <v>621</v>
@@ -24813,10 +24810,10 @@
         <v>210</v>
       </c>
       <c r="W265" s="7">
-        <v>16.795100000000001</v>
+        <v>14.5337</v>
       </c>
       <c r="X265" s="7">
-        <v>-89.946899999999999</v>
+        <v>-91.503100000000003</v>
       </c>
       <c r="Y265" s="10" t="s">
         <v>621</v>
@@ -24894,10 +24891,10 @@
         <v>211</v>
       </c>
       <c r="W266" s="7">
-        <v>16.795200000000001</v>
+        <v>14.533799999999999</v>
       </c>
       <c r="X266" s="7">
-        <v>-89.954800000000006</v>
+        <v>-91.5167</v>
       </c>
       <c r="Y266" s="10" t="s">
         <v>621</v>
@@ -24975,10 +24972,10 @@
         <v>618</v>
       </c>
       <c r="W267" s="7">
-        <v>16.797999999999998</v>
+        <v>14.533899999999999</v>
       </c>
       <c r="X267" s="7">
-        <v>-89.959400000000002</v>
+        <v>-91.505899999999997</v>
       </c>
       <c r="Y267" s="10" t="s">
         <v>621</v>
@@ -25056,10 +25053,10 @@
         <v>605</v>
       </c>
       <c r="W268" s="7">
-        <v>16.802099999999999</v>
+        <v>14.5341</v>
       </c>
       <c r="X268" s="7">
-        <v>-89.929400000000001</v>
+        <v>-91.503100000000003</v>
       </c>
       <c r="Y268" s="10" t="s">
         <v>621</v>
@@ -25137,10 +25134,10 @@
         <v>153</v>
       </c>
       <c r="W269" s="7">
-        <v>16.807099999999998</v>
+        <v>14.4199</v>
       </c>
       <c r="X269" s="7">
-        <v>-89.929699999999997</v>
+        <v>-91.163300000000007</v>
       </c>
       <c r="Y269" s="10" t="s">
         <v>621</v>
@@ -25218,10 +25215,10 @@
         <v>154</v>
       </c>
       <c r="W270" s="7">
-        <v>16.811699999999998</v>
+        <v>14.421900000000001</v>
       </c>
       <c r="X270" s="7">
-        <v>-89.502799999999993</v>
+        <v>-91.160799999999995</v>
       </c>
       <c r="Y270" s="10" t="s">
         <v>621</v>
@@ -25299,10 +25296,10 @@
         <v>155</v>
       </c>
       <c r="W271" s="7">
-        <v>16.8309</v>
+        <v>14.4237</v>
       </c>
       <c r="X271" s="7">
-        <v>-89.576400000000007</v>
+        <v>-91.16</v>
       </c>
       <c r="Y271" s="10" t="s">
         <v>621</v>
@@ -25380,10 +25377,10 @@
         <v>156</v>
       </c>
       <c r="W272" s="7">
-        <v>16.8354</v>
+        <v>14.424200000000001</v>
       </c>
       <c r="X272" s="7">
-        <v>-89.619</v>
+        <v>-91.16</v>
       </c>
       <c r="Y272" s="10" t="s">
         <v>621</v>
@@ -25461,10 +25458,10 @@
         <v>157</v>
       </c>
       <c r="W273" s="7">
-        <v>16.836600000000001</v>
+        <v>14.424200000000001</v>
       </c>
       <c r="X273" s="7">
-        <v>-89.818700000000007</v>
+        <v>-91.159800000000004</v>
       </c>
       <c r="Y273" s="10" t="s">
         <v>621</v>
@@ -25536,10 +25533,10 @@
         <v>50</v>
       </c>
       <c r="W274" s="7">
-        <v>16.893599999999999</v>
+        <v>14.5349</v>
       </c>
       <c r="X274" s="7">
-        <v>-89.457499999999996</v>
+        <v>-91.492999999999995</v>
       </c>
       <c r="Y274" s="10" t="s">
         <v>621</v>
@@ -25611,10 +25608,10 @@
         <v>589</v>
       </c>
       <c r="W275" s="7">
-        <v>16.894600000000001</v>
+        <v>14.537699999999999</v>
       </c>
       <c r="X275" s="7">
-        <v>-90.008300000000006</v>
+        <v>-91.504900000000006</v>
       </c>
       <c r="Y275" s="10" t="s">
         <v>621</v>
@@ -25692,10 +25689,10 @@
         <v>209</v>
       </c>
       <c r="W276" s="7">
-        <v>16.903300000000002</v>
+        <v>14.5335</v>
       </c>
       <c r="X276" s="7">
-        <v>-89.839399999999998</v>
+        <v>-91.682000000000002</v>
       </c>
       <c r="Y276" s="10" t="s">
         <v>621</v>
@@ -25773,10 +25770,10 @@
         <v>214</v>
       </c>
       <c r="W277" s="7">
-        <v>16.9038</v>
+        <v>14.534599999999999</v>
       </c>
       <c r="X277" s="7">
-        <v>-89.765799999999999</v>
+        <v>-91.680400000000006</v>
       </c>
       <c r="Y277" s="10" t="s">
         <v>620</v>
@@ -25854,10 +25851,10 @@
         <v>598</v>
       </c>
       <c r="W278" s="7">
-        <v>16.912500000000001</v>
+        <v>14.534800000000001</v>
       </c>
       <c r="X278" s="7">
-        <v>-89.888000000000005</v>
+        <v>-91.680300000000003</v>
       </c>
       <c r="Y278" s="10" t="s">
         <v>621</v>
@@ -25935,10 +25932,10 @@
         <v>139</v>
       </c>
       <c r="W279" s="7">
-        <v>16.912700000000001</v>
+        <v>14.535299999999999</v>
       </c>
       <c r="X279" s="7">
-        <v>-89.876599999999996</v>
+        <v>-91.681200000000004</v>
       </c>
       <c r="Y279" s="10" t="s">
         <v>621</v>
@@ -26016,10 +26013,10 @@
         <v>593</v>
       </c>
       <c r="W280" s="7">
-        <v>16.9129</v>
+        <v>14.536099999999999</v>
       </c>
       <c r="X280" s="7">
-        <v>-89.875399999999999</v>
+        <v>-91.68</v>
       </c>
       <c r="Y280" s="10" t="s">
         <v>621</v>
@@ -26091,10 +26088,10 @@
         <v>208</v>
       </c>
       <c r="W281" s="7">
-        <v>16.9133</v>
+        <v>14.5334</v>
       </c>
       <c r="X281" s="7">
-        <v>-89.948499999999996</v>
+        <v>-91.683899999999994</v>
       </c>
       <c r="Y281" s="10" t="s">
         <v>621</v>
@@ -26166,10 +26163,10 @@
         <v>609</v>
       </c>
       <c r="W282" s="7">
-        <v>16.913499999999999</v>
+        <v>14.5334</v>
       </c>
       <c r="X282" s="7">
-        <v>-89.876499999999993</v>
+        <v>-91.683899999999994</v>
       </c>
       <c r="Y282" s="10" t="s">
         <v>621</v>
@@ -26247,10 +26244,10 @@
         <v>224</v>
       </c>
       <c r="W283" s="7">
-        <v>16.915199999999999</v>
+        <v>14.9642</v>
       </c>
       <c r="X283" s="7">
-        <v>-89.880600000000001</v>
+        <v>-91.794399999999996</v>
       </c>
       <c r="Y283" s="10" t="s">
         <v>621</v>
@@ -26328,10 +26325,10 @@
         <v>616</v>
       </c>
       <c r="W284" s="7">
-        <v>16.915400000000002</v>
+        <v>14.9643</v>
       </c>
       <c r="X284" s="7">
-        <v>-89.881399999999999</v>
+        <v>-91.794700000000006</v>
       </c>
       <c r="Y284" s="10" t="s">
         <v>621</v>
@@ -26409,10 +26406,10 @@
         <v>459</v>
       </c>
       <c r="W285" s="7">
-        <v>16.917999999999999</v>
+        <v>14.9664</v>
       </c>
       <c r="X285" s="7">
-        <v>-89.892799999999994</v>
+        <v>-91.779300000000006</v>
       </c>
       <c r="Y285" s="10" t="s">
         <v>621</v>
@@ -26490,10 +26487,10 @@
         <v>38</v>
       </c>
       <c r="W286" s="7">
-        <v>16.918700000000001</v>
+        <v>15.1233</v>
       </c>
       <c r="X286" s="7">
-        <v>-89.887600000000006</v>
+        <v>-91.806399999999996</v>
       </c>
       <c r="Y286" s="10" t="s">
         <v>621</v>
@@ -26571,10 +26568,10 @@
         <v>611</v>
       </c>
       <c r="W287" s="7">
-        <v>16.9192</v>
+        <v>14.677300000000001</v>
       </c>
       <c r="X287" s="7">
-        <v>-89.889499999999998</v>
+        <v>-92.140299999999996</v>
       </c>
       <c r="Y287" s="10" t="s">
         <v>621</v>
@@ -26652,10 +26649,10 @@
         <v>391</v>
       </c>
       <c r="W288" s="7">
-        <v>16.919499999999999</v>
+        <v>14.6782</v>
       </c>
       <c r="X288" s="7">
-        <v>-89.8874</v>
+        <v>-92.139899999999997</v>
       </c>
       <c r="Y288" s="10" t="s">
         <v>621</v>
@@ -26733,10 +26730,10 @@
         <v>63</v>
       </c>
       <c r="W289" s="7">
-        <v>16.919599999999999</v>
+        <v>14.6783</v>
       </c>
       <c r="X289" s="7">
-        <v>-89.888499999999993</v>
+        <v>-92.140699999999995</v>
       </c>
       <c r="Y289" s="10" t="s">
         <v>621</v>
@@ -26814,10 +26811,10 @@
         <v>611</v>
       </c>
       <c r="W290" s="7">
-        <v>16.919799999999999</v>
+        <v>14.6783</v>
       </c>
       <c r="X290" s="7">
-        <v>-89.894499999999994</v>
+        <v>-92.139799999999994</v>
       </c>
       <c r="Y290" s="10" t="s">
         <v>621</v>
@@ -26895,10 +26892,10 @@
         <v>478</v>
       </c>
       <c r="W291" s="7">
-        <v>16.920500000000001</v>
+        <v>15.311299999999999</v>
       </c>
       <c r="X291" s="7">
-        <v>-89.889399999999995</v>
+        <v>-91.483699999999999</v>
       </c>
       <c r="Y291" s="10" t="s">
         <v>621</v>
@@ -26976,10 +26973,10 @@
         <v>165</v>
       </c>
       <c r="W292" s="7">
-        <v>16.9207</v>
+        <v>15.318300000000001</v>
       </c>
       <c r="X292" s="7">
-        <v>-89.8887</v>
+        <v>-91.468999999999994</v>
       </c>
       <c r="Y292" s="10" t="s">
         <v>621</v>
@@ -27057,10 +27054,10 @@
         <v>165</v>
       </c>
       <c r="W293" s="7">
-        <v>16.9209</v>
+        <v>15.319100000000001</v>
       </c>
       <c r="X293" s="7">
-        <v>-89.889499999999998</v>
+        <v>-91.468599999999995</v>
       </c>
       <c r="Y293" s="10" t="s">
         <v>621</v>
@@ -27138,10 +27135,10 @@
         <v>523</v>
       </c>
       <c r="W294" s="7">
-        <v>16.9222</v>
+        <v>15.8002</v>
       </c>
       <c r="X294" s="7">
-        <v>-89.903700000000001</v>
+        <v>-91.754800000000003</v>
       </c>
       <c r="Y294" s="10" t="s">
         <v>621</v>
@@ -27219,10 +27216,10 @@
         <v>569</v>
       </c>
       <c r="W295" s="7">
-        <v>16.9224</v>
+        <v>15.666</v>
       </c>
       <c r="X295" s="7">
-        <v>-89.894099999999995</v>
+        <v>-91.708600000000004</v>
       </c>
       <c r="Y295" s="10" t="s">
         <v>621</v>
@@ -27300,10 +27297,10 @@
         <v>277</v>
       </c>
       <c r="W296" s="7">
-        <v>16.923500000000001</v>
+        <v>15.666399999999999</v>
       </c>
       <c r="X296" s="7">
-        <v>-89.902799999999999</v>
+        <v>-91.714200000000005</v>
       </c>
       <c r="Y296" s="10" t="s">
         <v>621</v>
@@ -27381,10 +27378,10 @@
         <v>511</v>
       </c>
       <c r="W297" s="7">
-        <v>16.9236</v>
+        <v>15.666499999999999</v>
       </c>
       <c r="X297" s="7">
-        <v>-89.890699999999995</v>
+        <v>-91.714500000000001</v>
       </c>
       <c r="Y297" s="10" t="s">
         <v>621</v>
@@ -27462,10 +27459,10 @@
         <v>496</v>
       </c>
       <c r="W298" s="7">
-        <v>16.9237</v>
+        <v>15.6364</v>
       </c>
       <c r="X298" s="7">
-        <v>-89.891000000000005</v>
+        <v>-91.915700000000001</v>
       </c>
       <c r="Y298" s="10" t="s">
         <v>621</v>
@@ -27543,10 +27540,10 @@
         <v>507</v>
       </c>
       <c r="W299" s="7">
-        <v>16.925899999999999</v>
+        <v>15.663500000000001</v>
       </c>
       <c r="X299" s="7">
-        <v>-89.901300000000006</v>
+        <v>-91.709599999999995</v>
       </c>
       <c r="Y299" s="10" t="s">
         <v>621</v>
@@ -27624,10 +27621,10 @@
         <v>502</v>
       </c>
       <c r="W300" s="7">
-        <v>16.926200000000001</v>
+        <v>15.653700000000001</v>
       </c>
       <c r="X300" s="7">
-        <v>-89.900199999999998</v>
+        <v>-91.769499999999994</v>
       </c>
       <c r="Y300" s="10" t="s">
         <v>621</v>
@@ -27705,10 +27702,10 @@
         <v>38</v>
       </c>
       <c r="W301" s="7">
-        <v>16.927600000000002</v>
+        <v>15.7669</v>
       </c>
       <c r="X301" s="7">
-        <v>-89.900099999999995</v>
+        <v>-91.8489</v>
       </c>
       <c r="Y301" s="10" t="s">
         <v>621</v>
@@ -27780,10 +27777,10 @@
         <v>479</v>
       </c>
       <c r="W302" s="7">
-        <v>16.9283</v>
+        <v>15.3126</v>
       </c>
       <c r="X302" s="7">
-        <v>-89.890900000000002</v>
+        <v>-91.491399999999999</v>
       </c>
       <c r="Y302" s="10" t="s">
         <v>621</v>
@@ -27855,10 +27852,10 @@
         <v>559</v>
       </c>
       <c r="W303" s="7">
-        <v>16.9284</v>
+        <v>15.668699999999999</v>
       </c>
       <c r="X303" s="7">
-        <v>-89.892300000000006</v>
+        <v>-91.709199999999996</v>
       </c>
       <c r="Y303" s="10" t="s">
         <v>621</v>
@@ -27936,10 +27933,10 @@
         <v>463</v>
       </c>
       <c r="W304" s="7">
-        <v>16.9285</v>
+        <v>15.0306</v>
       </c>
       <c r="X304" s="7">
-        <v>-89.892399999999995</v>
+        <v>-91.149900000000002</v>
       </c>
       <c r="Y304" s="10" t="s">
         <v>621</v>
@@ -28017,10 +28014,10 @@
         <v>224</v>
       </c>
       <c r="W305" s="7">
-        <v>16.9285</v>
+        <v>14.9419</v>
       </c>
       <c r="X305" s="7">
-        <v>-89.891599999999997</v>
+        <v>-91.110399999999998</v>
       </c>
       <c r="Y305" s="10" t="s">
         <v>621</v>
@@ -28098,10 +28095,10 @@
         <v>224</v>
       </c>
       <c r="W306" s="7">
-        <v>16.9285</v>
+        <v>14.943</v>
       </c>
       <c r="X306" s="7">
-        <v>-89.891499999999994</v>
+        <v>-91.110699999999994</v>
       </c>
       <c r="Y306" s="10" t="s">
         <v>621</v>
@@ -28179,10 +28176,10 @@
         <v>214</v>
       </c>
       <c r="W307" s="7">
-        <v>16.9285</v>
+        <v>14.943099999999999</v>
       </c>
       <c r="X307" s="7">
-        <v>-89.892600000000002</v>
+        <v>-91.112099999999998</v>
       </c>
       <c r="Y307" s="10" t="s">
         <v>621</v>
@@ -28260,10 +28257,10 @@
         <v>452</v>
       </c>
       <c r="W308" s="7">
-        <v>16.928599999999999</v>
+        <v>14.944100000000001</v>
       </c>
       <c r="X308" s="7">
-        <v>-89.893600000000006</v>
+        <v>-91.111099999999993</v>
       </c>
       <c r="Y308" s="10" t="s">
         <v>621</v>
@@ -28341,10 +28338,10 @@
         <v>453</v>
       </c>
       <c r="W309" s="7">
-        <v>16.928599999999999</v>
+        <v>14.945399999999999</v>
       </c>
       <c r="X309" s="7">
-        <v>-89.891800000000003</v>
+        <v>-91.1113</v>
       </c>
       <c r="Y309" s="10" t="s">
         <v>621</v>
@@ -28422,10 +28419,10 @@
         <v>454</v>
       </c>
       <c r="W310" s="7">
-        <v>16.928599999999999</v>
+        <v>14.9465</v>
       </c>
       <c r="X310" s="7">
-        <v>-89.890699999999995</v>
+        <v>-91.109899999999996</v>
       </c>
       <c r="Y310" s="10" t="s">
         <v>621</v>
@@ -28503,10 +28500,10 @@
         <v>38</v>
       </c>
       <c r="W311" s="7">
-        <v>16.928599999999999</v>
+        <v>15.1676</v>
       </c>
       <c r="X311" s="7">
-        <v>-89.892499999999998</v>
+        <v>-90.8506</v>
       </c>
       <c r="Y311" s="10" t="s">
         <v>621</v>
@@ -28584,10 +28581,10 @@
         <v>28</v>
       </c>
       <c r="W312" s="7">
-        <v>16.928599999999999</v>
+        <v>15.3477</v>
       </c>
       <c r="X312" s="7">
-        <v>-89.892700000000005</v>
+        <v>-90.800600000000003</v>
       </c>
       <c r="Y312" s="10" t="s">
         <v>621</v>
@@ -28665,10 +28662,10 @@
         <v>590</v>
       </c>
       <c r="W313" s="7">
-        <v>16.928799999999999</v>
+        <v>15.9893</v>
       </c>
       <c r="X313" s="7">
-        <v>-89.890799999999999</v>
+        <v>-90.780199999999994</v>
       </c>
       <c r="Y313" s="10" t="s">
         <v>621</v>
@@ -28746,10 +28743,10 @@
         <v>601</v>
       </c>
       <c r="W314" s="7">
-        <v>16.928799999999999</v>
+        <v>15.3187</v>
       </c>
       <c r="X314" s="7">
-        <v>-89.890500000000003</v>
+        <v>-90.3523</v>
       </c>
       <c r="Y314" s="10" t="s">
         <v>621</v>
@@ -28827,10 +28824,10 @@
         <v>540</v>
       </c>
       <c r="W315" s="7">
-        <v>16.928799999999999</v>
+        <v>16.918700000000001</v>
       </c>
       <c r="X315" s="7">
-        <v>-89.897900000000007</v>
+        <v>-89.892399999999995</v>
       </c>
       <c r="Y315" s="10" t="s">
         <v>621</v>
@@ -28908,10 +28905,10 @@
         <v>536</v>
       </c>
       <c r="W316" s="7">
-        <v>16.928899999999999</v>
+        <v>16.7987</v>
       </c>
       <c r="X316" s="7">
-        <v>-89.891400000000004</v>
+        <v>-89.935100000000006</v>
       </c>
       <c r="Y316" s="10" t="s">
         <v>621</v>
@@ -28989,10 +28986,10 @@
         <v>38</v>
       </c>
       <c r="W317" s="7">
-        <v>16.928899999999999</v>
+        <v>16.799499999999998</v>
       </c>
       <c r="X317" s="7">
-        <v>-89.891300000000001</v>
+        <v>-89.936000000000007</v>
       </c>
       <c r="Y317" s="10" t="s">
         <v>621</v>
@@ -29070,10 +29067,10 @@
         <v>38</v>
       </c>
       <c r="W318" s="7">
-        <v>16.928899999999999</v>
+        <v>16.5198</v>
       </c>
       <c r="X318" s="7">
-        <v>-89.8917</v>
+        <v>-90.180899999999994</v>
       </c>
       <c r="Y318" s="10" t="s">
         <v>621</v>
@@ -29145,10 +29142,10 @@
         <v>38</v>
       </c>
       <c r="W319" s="7">
-        <v>16.928899999999999</v>
+        <v>16.5122</v>
       </c>
       <c r="X319" s="7">
-        <v>-89.8904</v>
+        <v>-89.418599999999998</v>
       </c>
       <c r="Y319" s="10" t="s">
         <v>621</v>
@@ -29220,10 +29217,10 @@
         <v>38</v>
       </c>
       <c r="W320" s="7">
-        <v>16.928999999999998</v>
+        <v>16.513400000000001</v>
       </c>
       <c r="X320" s="7">
-        <v>-89.9178</v>
+        <v>-89.418899999999994</v>
       </c>
       <c r="Y320" s="10" t="s">
         <v>621</v>
@@ -29295,10 +29292,10 @@
         <v>38</v>
       </c>
       <c r="W321" s="7">
-        <v>16.928999999999998</v>
+        <v>16.5139</v>
       </c>
       <c r="X321" s="7">
-        <v>-89.891400000000004</v>
+        <v>-89.416899999999998</v>
       </c>
       <c r="Y321" s="10" t="s">
         <v>621</v>
@@ -29370,10 +29367,10 @@
         <v>600</v>
       </c>
       <c r="W322" s="7">
-        <v>16.928999999999998</v>
+        <v>16.917999999999999</v>
       </c>
       <c r="X322" s="7">
-        <v>-89.892499999999998</v>
+        <v>-89.892799999999994</v>
       </c>
       <c r="Y322" s="10" t="s">
         <v>621</v>
@@ -29445,10 +29442,10 @@
         <v>585</v>
       </c>
       <c r="W323" s="7">
-        <v>16.929099999999998</v>
+        <v>16.928899999999999</v>
       </c>
       <c r="X323" s="7">
-        <v>-89.890299999999996</v>
+        <v>-89.8917</v>
       </c>
       <c r="Y323" s="10" t="s">
         <v>621</v>
@@ -29520,10 +29517,10 @@
         <v>599</v>
       </c>
       <c r="W324" s="7">
-        <v>16.929099999999998</v>
+        <v>16.992799999999999</v>
       </c>
       <c r="X324" s="7">
-        <v>-89.893100000000004</v>
+        <v>-89.691400000000002</v>
       </c>
       <c r="Y324" s="10" t="s">
         <v>621</v>
@@ -29601,10 +29598,10 @@
         <v>517</v>
       </c>
       <c r="W325" s="7">
-        <v>16.929200000000002</v>
+        <v>15.726599999999999</v>
       </c>
       <c r="X325" s="7">
-        <v>-89.892499999999998</v>
+        <v>-88.6006</v>
       </c>
       <c r="Y325" s="10" t="s">
         <v>621</v>
@@ -29682,10 +29679,10 @@
         <v>518</v>
       </c>
       <c r="W326" s="7">
-        <v>16.929200000000002</v>
+        <v>15.728400000000001</v>
       </c>
       <c r="X326" s="7">
-        <v>-89.891099999999994</v>
+        <v>-88.601200000000006</v>
       </c>
       <c r="Y326" s="10" t="s">
         <v>621</v>
@@ -29763,10 +29760,10 @@
         <v>38</v>
       </c>
       <c r="W327" s="7">
-        <v>16.929200000000002</v>
+        <v>15.6592</v>
       </c>
       <c r="X327" s="7">
-        <v>-89.891099999999994</v>
+        <v>-89.003200000000007</v>
       </c>
       <c r="Y327" s="10" t="s">
         <v>621</v>
@@ -29844,10 +29841,10 @@
         <v>38</v>
       </c>
       <c r="W328" s="7">
-        <v>16.929200000000002</v>
+        <v>15.661199999999999</v>
       </c>
       <c r="X328" s="7">
-        <v>-89.890699999999995</v>
+        <v>-89.007099999999994</v>
       </c>
       <c r="Y328" s="10" t="s">
         <v>621</v>
@@ -29925,10 +29922,10 @@
         <v>224</v>
       </c>
       <c r="W329" s="7">
-        <v>16.929200000000002</v>
+        <v>14.799799999999999</v>
       </c>
       <c r="X329" s="7">
-        <v>-89.891900000000007</v>
+        <v>-89.547399999999996</v>
       </c>
       <c r="Y329" s="10" t="s">
         <v>621</v>
@@ -30006,10 +30003,10 @@
         <v>236</v>
       </c>
       <c r="W330" s="7">
-        <v>16.929200000000002</v>
+        <v>14.799899999999999</v>
       </c>
       <c r="X330" s="7">
-        <v>-89.893100000000004</v>
+        <v>-89.537700000000001</v>
       </c>
       <c r="Y330" s="10" t="s">
         <v>621</v>
@@ -30087,10 +30084,10 @@
         <v>260</v>
       </c>
       <c r="W331" s="7">
-        <v>16.929300000000001</v>
+        <v>14.8003</v>
       </c>
       <c r="X331" s="7">
-        <v>-89.891099999999994</v>
+        <v>-89.544300000000007</v>
       </c>
       <c r="Y331" s="10" t="s">
         <v>621</v>
@@ -30168,10 +30165,10 @@
         <v>580</v>
       </c>
       <c r="W332" s="7">
-        <v>16.929400000000001</v>
+        <v>14.8003</v>
       </c>
       <c r="X332" s="7">
-        <v>-89.892399999999995</v>
+        <v>-89.540499999999994</v>
       </c>
       <c r="Y332" s="10" t="s">
         <v>621</v>
@@ -30249,10 +30246,10 @@
         <v>236</v>
       </c>
       <c r="W333" s="7">
-        <v>16.929400000000001</v>
+        <v>14.800599999999999</v>
       </c>
       <c r="X333" s="7">
-        <v>-89.891999999999996</v>
+        <v>-89.543199999999999</v>
       </c>
       <c r="Y333" s="10" t="s">
         <v>621</v>
@@ -30330,10 +30327,10 @@
         <v>224</v>
       </c>
       <c r="W334" s="7">
-        <v>16.929500000000001</v>
+        <v>14.800599999999999</v>
       </c>
       <c r="X334" s="7">
-        <v>-89.892799999999994</v>
+        <v>-89.544399999999996</v>
       </c>
       <c r="Y334" s="10" t="s">
         <v>621</v>
@@ -30411,10 +30408,10 @@
         <v>260</v>
       </c>
       <c r="W335" s="7">
-        <v>16.929500000000001</v>
+        <v>14.801</v>
       </c>
       <c r="X335" s="7">
-        <v>-89.893299999999996</v>
+        <v>-89.540599999999998</v>
       </c>
       <c r="Y335" s="10" t="s">
         <v>621</v>
@@ -30492,10 +30489,10 @@
         <v>139</v>
       </c>
       <c r="W336" s="7">
-        <v>16.929500000000001</v>
+        <v>14.8011</v>
       </c>
       <c r="X336" s="7">
-        <v>-89.891300000000001</v>
+        <v>-89.545299999999997</v>
       </c>
       <c r="Y336" s="10" t="s">
         <v>621</v>
@@ -30573,10 +30570,10 @@
         <v>260</v>
       </c>
       <c r="W337" s="7">
-        <v>16.929500000000001</v>
+        <v>14.8012</v>
       </c>
       <c r="X337" s="7">
-        <v>-89.892499999999998</v>
+        <v>-89.541799999999995</v>
       </c>
       <c r="Y337" s="10" t="s">
         <v>621</v>
@@ -30654,10 +30651,10 @@
         <v>224</v>
       </c>
       <c r="W338" s="7">
-        <v>16.929500000000001</v>
+        <v>14.8012</v>
       </c>
       <c r="X338" s="7">
-        <v>-89.892200000000003</v>
+        <v>-89.541200000000003</v>
       </c>
       <c r="Y338" s="10" t="s">
         <v>621</v>
@@ -30735,10 +30732,10 @@
         <v>236</v>
       </c>
       <c r="W339" s="7">
-        <v>16.929600000000001</v>
+        <v>14.801299999999999</v>
       </c>
       <c r="X339" s="7">
-        <v>-89.893199999999993</v>
+        <v>-89.541799999999995</v>
       </c>
       <c r="Y339" s="10" t="s">
         <v>621</v>
@@ -30816,10 +30813,10 @@
         <v>260</v>
       </c>
       <c r="W340" s="7">
-        <v>16.929600000000001</v>
+        <v>14.522600000000001</v>
       </c>
       <c r="X340" s="7">
-        <v>-89.8934</v>
+        <v>-89.4572</v>
       </c>
       <c r="Y340" s="10" t="s">
         <v>621</v>
@@ -30897,10 +30894,10 @@
         <v>587</v>
       </c>
       <c r="W341" s="7">
-        <v>16.929600000000001</v>
+        <v>14.523099999999999</v>
       </c>
       <c r="X341" s="7">
-        <v>-89.893199999999993</v>
+        <v>-89.456999999999994</v>
       </c>
       <c r="Y341" s="10" t="s">
         <v>621</v>
@@ -30978,10 +30975,10 @@
         <v>347</v>
       </c>
       <c r="W342" s="7">
-        <v>16.9297</v>
+        <v>14.6357</v>
       </c>
       <c r="X342" s="7">
-        <v>-89.893299999999996</v>
+        <v>-89.4435</v>
       </c>
       <c r="Y342" s="10" t="s">
         <v>621</v>
@@ -31059,10 +31056,10 @@
         <v>214</v>
       </c>
       <c r="W343" s="7">
-        <v>16.9297</v>
+        <v>14.6196</v>
       </c>
       <c r="X343" s="7">
-        <v>-89.892600000000002</v>
+        <v>-89.623000000000005</v>
       </c>
       <c r="Y343" s="10" t="s">
         <v>621</v>
@@ -31134,10 +31131,10 @@
         <v>260</v>
       </c>
       <c r="W344" s="7">
-        <v>16.9298</v>
+        <v>14.806699999999999</v>
       </c>
       <c r="X344" s="7">
-        <v>-89.892700000000005</v>
+        <v>-89.539599999999993</v>
       </c>
       <c r="Y344" s="10" t="s">
         <v>621</v>
@@ -31209,10 +31206,10 @@
         <v>224</v>
       </c>
       <c r="W345" s="7">
-        <v>16.9298</v>
+        <v>14.6328</v>
       </c>
       <c r="X345" s="7">
-        <v>-89.891000000000005</v>
+        <v>-89.986699999999999</v>
       </c>
       <c r="Y345" s="10" t="s">
         <v>621</v>
@@ -31284,10 +31281,10 @@
         <v>64</v>
       </c>
       <c r="W346" s="7">
-        <v>16.9299</v>
+        <v>14.6335</v>
       </c>
       <c r="X346" s="7">
-        <v>-89.893100000000004</v>
+        <v>-89.985799999999998</v>
       </c>
       <c r="Y346" s="10" t="s">
         <v>621</v>
@@ -31359,10 +31356,10 @@
         <v>343</v>
       </c>
       <c r="W347" s="7">
-        <v>16.9299</v>
+        <v>14.633699999999999</v>
       </c>
       <c r="X347" s="7">
-        <v>-89.890100000000004</v>
+        <v>-89.984399999999994</v>
       </c>
       <c r="Y347" s="10" t="s">
         <v>621</v>
@@ -31434,10 +31431,10 @@
         <v>283</v>
       </c>
       <c r="W348" s="7">
-        <v>16.93</v>
+        <v>14.6343</v>
       </c>
       <c r="X348" s="7">
-        <v>-89.889899999999997</v>
+        <v>-89.986099999999993</v>
       </c>
       <c r="Y348" s="10" t="s">
         <v>621</v>
@@ -31509,10 +31506,10 @@
         <v>224</v>
       </c>
       <c r="W349" s="7">
-        <v>16.93</v>
+        <v>14.6348</v>
       </c>
       <c r="X349" s="7">
-        <v>-89.890299999999996</v>
+        <v>-89.985600000000005</v>
       </c>
       <c r="Y349" s="10" t="s">
         <v>621</v>
@@ -31583,13 +31580,13 @@
       <c r="V350" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="W350" s="20">
-        <v>16.930199999999999</v>
-      </c>
-      <c r="X350" s="20">
-        <v>-89.893000000000001</v>
-      </c>
-      <c r="Y350" s="21" t="s">
+      <c r="W350" s="7">
+        <v>14.6374</v>
+      </c>
+      <c r="X350" s="7">
+        <v>-89.989900000000006</v>
+      </c>
+      <c r="Y350" s="20" t="s">
         <v>621</v>
       </c>
     </row>
